--- a/Четвертый курс/Надежность ЭВМ/Praktika_4.xlsx
+++ b/Четвертый курс/Надежность ЭВМ/Praktika_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\courses\institute\Четвертый курс\Надежность ЭВМ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE2844-9312-4A06-A0CC-2CD36E34E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7129A0-4948-4F4E-BA88-A945FCB15A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Теория" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,6 @@
     <sheet name="Мои задачи" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -982,7 +972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1647,11 +1637,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1725,27 +1786,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1804,12 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1846,6 +1885,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12081,7 +12189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -12094,11 +12202,11 @@
       <c r="D1">
         <v>1</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="87"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -12107,27 +12215,27 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="87"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="91"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="78" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12135,17 +12243,17 @@
       <c r="D5" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -12162,30 +12270,30 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="88"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
-      <c r="O8" s="88"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
       <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="88"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -12211,18 +12319,18 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J18" s="30" t="s">
@@ -12308,20 +12416,20 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="97"/>
-      <c r="L72" s="97"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -12684,31 +12792,31 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="61">
         <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="61">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="32"/>
@@ -12968,7 +13076,7 @@
         <f t="shared" si="2"/>
         <v>4.7837265471351031E-4</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="59">
         <f t="shared" si="2"/>
         <v>2.8870056425145396E-4</v>
       </c>
@@ -12999,7 +13107,7 @@
         <v>104</v>
       </c>
       <c r="H23" s="37"/>
-      <c r="I23" s="67"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
@@ -13036,115 +13144,115 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="84">
+      <c r="A45" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="76">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="78">
+      <c r="B46" s="70">
         <v>1</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="70">
         <v>2</v>
       </c>
-      <c r="D46" s="78">
+      <c r="D46" s="70">
         <v>3</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="70">
         <v>4</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="70">
         <v>5</v>
       </c>
-      <c r="G46" s="78">
+      <c r="G46" s="70">
         <v>6</v>
       </c>
-      <c r="H46" s="78">
+      <c r="H46" s="70">
         <v>7</v>
       </c>
-      <c r="I46" s="78">
+      <c r="I46" s="70">
         <v>8</v>
       </c>
-      <c r="J46" s="78">
+      <c r="J46" s="70">
         <v>9</v>
       </c>
-      <c r="K46" s="78">
+      <c r="K46" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="78">
+      <c r="B47" s="70">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="70">
         <v>1E-4</v>
       </c>
-      <c r="D47" s="78">
+      <c r="D47" s="70">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="70">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="70">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G47" s="78">
+      <c r="G47" s="70">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H47" s="78">
+      <c r="H47" s="70">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I47" s="78">
+      <c r="I47" s="70">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="J47" s="78">
+      <c r="J47" s="70">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K47" s="78">
+      <c r="K47" s="70">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="78">
+      <c r="B48" s="70">
         <v>0.5</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="70">
         <v>0.2</v>
       </c>
-      <c r="D48" s="78">
+      <c r="D48" s="70">
         <v>0.3</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="70">
         <v>0.9</v>
       </c>
-      <c r="F48" s="78">
+      <c r="F48" s="70">
         <v>0.8</v>
       </c>
-      <c r="G48" s="78">
+      <c r="G48" s="70">
         <v>0.1</v>
       </c>
-      <c r="H48" s="78">
+      <c r="H48" s="70">
         <v>0.6</v>
       </c>
-      <c r="I48" s="78">
+      <c r="I48" s="70">
         <v>0.4</v>
       </c>
-      <c r="J48" s="78">
+      <c r="J48" s="70">
         <v>0.9</v>
       </c>
-      <c r="K48" s="78">
+      <c r="K48" s="70">
         <v>0.2</v>
       </c>
     </row>
@@ -13269,14 +13377,14 @@
       <c r="D61" s="34"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
     </row>
     <row r="65" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13431,15 +13539,15 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="98" t="s">
+      <c r="A84" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="98"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="98"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
     </row>
     <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13515,10 +13623,10 @@
       <c r="E92" s="28">
         <v>40</v>
       </c>
-      <c r="G92" s="71" t="s">
+      <c r="G92" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="H92" s="72"/>
+      <c r="H92" s="64"/>
       <c r="I92" s="23">
         <f>C92*E92</f>
         <v>200</v>
@@ -13547,10 +13655,10 @@
       <c r="E93" s="28">
         <v>30</v>
       </c>
-      <c r="G93" s="71" t="s">
+      <c r="G93" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H93" s="72"/>
+      <c r="H93" s="64"/>
       <c r="I93" s="23">
         <f>C93</f>
         <v>120</v>
@@ -13600,16 +13708,16 @@
     </row>
     <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="73" t="s">
+      <c r="A96" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B96" s="74">
+      <c r="B96" s="66">
         <v>2</v>
       </c>
-      <c r="C96" s="74">
+      <c r="C96" s="66">
         <v>0.5</v>
       </c>
-      <c r="D96" s="74">
+      <c r="D96" s="66">
         <v>1.5</v>
       </c>
     </row>
@@ -13686,7 +13794,7 @@
         <f>SUM(C98:C100)</f>
         <v>1.8932565941944261E-2</v>
       </c>
-      <c r="D101" s="71">
+      <c r="D101" s="63">
         <f>SUM(D98:D100)</f>
         <v>2.2899488405740617E-2</v>
       </c>
@@ -13701,8 +13809,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="75"/>
-      <c r="C102" s="76"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="68"/>
       <c r="E102" s="23">
         <f>1/C101</f>
         <v>52.819042229481653</v>
@@ -13856,24 +13964,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AA162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="70">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C3" t="s">
@@ -13881,10 +13989,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="70">
         <v>60</v>
       </c>
       <c r="C4" t="s">
@@ -13892,13 +14000,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="71"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="72" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="23">
@@ -13907,7 +14015,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="73" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="15">
@@ -13916,7 +14024,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="23">
@@ -13931,19 +14039,19 @@
       <c r="E8" s="23">
         <v>0.9</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="74">
         <v>0.85</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="75">
         <f>B6/(B6+B4)</f>
         <v>0.84745762711864403</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23">
@@ -14000,11 +14108,11 @@
       <c r="A13" s="34"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -14208,9 +14316,9 @@
       <c r="F22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="35" t="s">
         <v>71</v>
       </c>
@@ -14254,9 +14362,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23">
         <v>0</v>
       </c>
@@ -14306,9 +14414,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
       <c r="J24">
         <f>1+$A23</f>
         <v>1</v>
@@ -14359,9 +14467,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25">
         <f t="shared" ref="J25:J68" si="5">1+$A24</f>
         <v>2</v>
@@ -14412,9 +14520,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="J26">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -14465,9 +14573,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -14518,9 +14626,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="J28">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -16965,15 +17073,15 @@
       <c r="A95" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="65">
+      <c r="B95" s="57">
         <f>A119</f>
         <v>31.1</v>
       </c>
-      <c r="C95" s="65">
+      <c r="C95" s="57">
         <f>E118</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="D95" s="66">
+      <c r="D95" s="58">
         <f>I119</f>
         <v>41</v>
       </c>
@@ -17014,1436 +17122,1505 @@
       </c>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
-      <c r="E101" s="120" t="s">
+      <c r="B101" s="125"/>
+      <c r="C101" s="126"/>
+      <c r="E101" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="F101" s="120"/>
-      <c r="G101" s="120"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="126"/>
       <c r="H101" s="51"/>
-      <c r="I101" s="120" t="s">
+      <c r="I101" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="J101" s="120"/>
-      <c r="K101" s="120"/>
-      <c r="M101" s="120" t="s">
+      <c r="J101" s="125"/>
+      <c r="K101" s="126"/>
+      <c r="M101" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="N101" s="120"/>
-      <c r="O101" s="120"/>
-      <c r="Q101" s="120" t="s">
+      <c r="N101" s="125"/>
+      <c r="O101" s="126"/>
+      <c r="Q101" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="R101" s="120"/>
-      <c r="S101" s="120"/>
-      <c r="U101" s="120" t="s">
+      <c r="R101" s="125"/>
+      <c r="S101" s="126"/>
+      <c r="U101" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="V101" s="120"/>
-      <c r="W101" s="120"/>
-      <c r="Y101" s="120" t="s">
+      <c r="V101" s="125"/>
+      <c r="W101" s="126"/>
+      <c r="Y101" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="Z101" s="120"/>
-      <c r="AA101" s="120"/>
+      <c r="Z101" s="125"/>
+      <c r="AA101" s="126"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A102" s="127"/>
+      <c r="B102" s="128"/>
+      <c r="C102" s="129"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="128"/>
+      <c r="G102" s="129"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="128"/>
+      <c r="K102" s="129"/>
+      <c r="M102" s="127"/>
+      <c r="N102" s="128"/>
+      <c r="O102" s="129"/>
+      <c r="Q102" s="127"/>
+      <c r="R102" s="128"/>
+      <c r="S102" s="129"/>
+      <c r="U102" s="127"/>
+      <c r="V102" s="128"/>
+      <c r="W102" s="129"/>
+      <c r="Y102" s="127"/>
+      <c r="Z102" s="128"/>
+      <c r="AA102" s="129"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="53">
+      <c r="C103" s="132">
         <f>1/B94</f>
         <v>10</v>
       </c>
-      <c r="D103" s="54"/>
-      <c r="E103" s="55" t="s">
+      <c r="D103" s="53"/>
+      <c r="E103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F103" s="56" t="s">
+      <c r="F103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="G103" s="53">
+      <c r="G103" s="132">
         <f>1/C94</f>
         <v>20</v>
       </c>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55" t="s">
+      <c r="H103" s="53"/>
+      <c r="I103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="J103" s="56" t="s">
+      <c r="J103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="K103" s="53">
+      <c r="K103" s="132">
         <f>1/D94</f>
         <v>100</v>
       </c>
-      <c r="L103" s="54"/>
-      <c r="M103" s="55" t="s">
+      <c r="L103" s="53"/>
+      <c r="M103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="N103" s="56" t="s">
+      <c r="N103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="O103" s="53">
+      <c r="O103" s="132">
         <f>1/E94</f>
         <v>200</v>
       </c>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="55" t="s">
+      <c r="P103" s="53"/>
+      <c r="Q103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="R103" s="56" t="s">
+      <c r="R103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="S103" s="53">
+      <c r="S103" s="132">
         <f>1/F94</f>
         <v>1000</v>
       </c>
-      <c r="U103" s="55" t="s">
+      <c r="U103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="V103" s="56" t="s">
+      <c r="V103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="W103" s="53">
+      <c r="W103" s="132">
         <f>1/G94</f>
         <v>2000</v>
       </c>
-      <c r="Y103" s="55" t="s">
+      <c r="Y103" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="Z103" s="56" t="s">
+      <c r="Z103" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="AA103" s="53">
+      <c r="AA103" s="132">
         <f>1/H94</f>
         <v>10000</v>
       </c>
     </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A104" s="127"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="129"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="129"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="128"/>
+      <c r="K104" s="129"/>
+      <c r="M104" s="127"/>
+      <c r="N104" s="128"/>
+      <c r="O104" s="129"/>
+      <c r="Q104" s="127"/>
+      <c r="R104" s="128"/>
+      <c r="S104" s="129"/>
+      <c r="U104" s="127"/>
+      <c r="V104" s="128"/>
+      <c r="W104" s="129"/>
+      <c r="Y104" s="127"/>
+      <c r="Z104" s="128"/>
+      <c r="AA104" s="129"/>
+    </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="57">
+      <c r="C105" s="133">
         <f>C103/(C103+$C$97)</f>
         <v>0.5</v>
       </c>
-      <c r="E105" s="52" t="s">
+      <c r="E105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="G105" s="57">
+      <c r="G105" s="133">
         <f>G103/(G103+$C$97)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I105" s="52" t="s">
+      <c r="I105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="J105" s="21" t="s">
+      <c r="J105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="K105" s="57">
+      <c r="K105" s="133">
         <f>K103/(K103+$C$97)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="M105" s="52" t="s">
+      <c r="M105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="N105" s="21" t="s">
+      <c r="N105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="O105" s="57">
+      <c r="O105" s="133">
         <f>O103/(O103+$C$97)</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="Q105" s="52" t="s">
+      <c r="Q105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="R105" s="21" t="s">
+      <c r="R105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="S105" s="57">
+      <c r="S105" s="133">
         <f>S103/(S103+$C$97)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="U105" s="52" t="s">
+      <c r="U105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="V105" s="21" t="s">
+      <c r="V105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="W105" s="57">
+      <c r="W105" s="133">
         <f>W103/(W103+$C$97)</f>
         <v>0.99502487562189057</v>
       </c>
-      <c r="Y105" s="52" t="s">
+      <c r="Y105" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="Z105" s="21" t="s">
+      <c r="Z105" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="AA105" s="57">
+      <c r="AA105" s="133">
         <f>AA103/(AA103+$C$97)</f>
         <v>0.99900099900099903</v>
       </c>
     </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A106" s="127"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="129"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="128"/>
+      <c r="G106" s="129"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="128"/>
+      <c r="K106" s="129"/>
+      <c r="M106" s="127"/>
+      <c r="N106" s="128"/>
+      <c r="O106" s="129"/>
+      <c r="Q106" s="127"/>
+      <c r="R106" s="128"/>
+      <c r="S106" s="129"/>
+      <c r="U106" s="127"/>
+      <c r="V106" s="128"/>
+      <c r="W106" s="129"/>
+      <c r="Y106" s="127"/>
+      <c r="Z106" s="128"/>
+      <c r="AA106" s="129"/>
+    </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="E107" s="52" t="s">
+      <c r="E107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="52" t="s">
+      <c r="F107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="I107" s="52" t="s">
+      <c r="I107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="J107" s="52" t="s">
+      <c r="J107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="52" t="s">
+      <c r="K107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="M107" s="52" t="s">
+      <c r="M107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="N107" s="52" t="s">
+      <c r="N107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="O107" s="52" t="s">
+      <c r="O107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Q107" s="52" t="s">
+      <c r="Q107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="R107" s="52" t="s">
+      <c r="R107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="S107" s="52" t="s">
+      <c r="S107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="U107" s="52" t="s">
+      <c r="U107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="V107" s="52" t="s">
+      <c r="V107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="W107" s="52" t="s">
+      <c r="W107" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Y107" s="52" t="s">
+      <c r="Y107" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="Z107" s="52" t="s">
+      <c r="Z107" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="AA107" s="52" t="s">
+      <c r="AA107" s="135" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="54">
-        <v>0</v>
-      </c>
-      <c r="B108" s="37">
+      <c r="A108" s="136">
+        <v>0</v>
+      </c>
+      <c r="B108" s="137">
         <f>$C$99/($C$99+$B$94)+($B$94/($C$99+$B$94)*EXP(-($B$94+$C$99)*A108))</f>
         <v>1</v>
       </c>
-      <c r="C108" s="37">
+      <c r="C108" s="138">
         <f>B108-$C$105</f>
         <v>0.5</v>
       </c>
-      <c r="E108" s="54">
-        <v>0</v>
-      </c>
-      <c r="F108" s="37">
+      <c r="E108" s="136">
+        <v>0</v>
+      </c>
+      <c r="F108" s="137">
         <f>$C$99/($C$99+$C$94)+($C$94/($C$99+$C$94)*EXP(-($C$94+$C$99)*E108))</f>
         <v>1</v>
       </c>
-      <c r="G108" s="37">
+      <c r="G108" s="138">
         <f>F108-$G$105</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="I108" s="54">
-        <v>0</v>
-      </c>
-      <c r="J108" s="37">
+      <c r="I108" s="136">
+        <v>0</v>
+      </c>
+      <c r="J108" s="137">
         <f>$C$99/($C$99+$D$94)+($D$94/($C$99+$D$94)*EXP(-($D$94+$C$99)*I108))</f>
         <v>1</v>
       </c>
-      <c r="K108" s="37">
+      <c r="K108" s="138">
         <f>J108-$K$105</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="M108" s="54">
-        <v>0</v>
-      </c>
-      <c r="N108" s="37">
+      <c r="M108" s="136">
+        <v>0</v>
+      </c>
+      <c r="N108" s="137">
         <f>$C$99/($C$99+$E$94)+($E$94/($C$99+$E$94)*EXP(-($E$94+$C$99)*M108))</f>
         <v>1</v>
       </c>
-      <c r="O108" s="37">
+      <c r="O108" s="138">
         <f>N108-$O$105</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="Q108" s="54">
-        <v>0</v>
-      </c>
-      <c r="R108" s="37">
+      <c r="Q108" s="136">
+        <v>0</v>
+      </c>
+      <c r="R108" s="137">
         <f>$C$99/($C$99+$F$94)+($F$94/($C$99+$F$94)*EXP(-($F$94+$C$99)*Q108))</f>
         <v>1</v>
       </c>
-      <c r="S108" s="37">
+      <c r="S108" s="138">
         <f>R108-$S$105</f>
         <v>9.9009900990099098E-3</v>
       </c>
-      <c r="U108" s="54">
-        <v>0</v>
-      </c>
-      <c r="V108" s="37">
+      <c r="U108" s="136">
+        <v>0</v>
+      </c>
+      <c r="V108" s="137">
         <f>$C$99/($C$99+$G$94)+($G$94/($C$99+$G$94)*EXP(-($G$94+$C$99)*U108))</f>
         <v>1</v>
       </c>
-      <c r="W108" s="37">
+      <c r="W108" s="138">
         <f>V108-$W$105</f>
         <v>4.9751243781094301E-3</v>
       </c>
-      <c r="Y108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="37">
+      <c r="Y108" s="148">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="137">
         <f>$C$99/($C$99+$H$94)+($H$94/($C$99+$H$94)*EXP(-($H$94+$C$99)*Y108))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AA108" s="37">
+      <c r="AA108" s="138">
         <f>Z108-$AA$105</f>
         <v>9.9900099900085415E-4</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A109" s="54">
+      <c r="A109" s="136">
         <v>3</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B109" s="137">
         <f t="shared" ref="B109:B120" si="8">$C$99/($C$99+$B$94)+($B$94/($C$99+$B$94)*EXP(-($B$94+$C$99)*A109))</f>
         <v>0.77440581804701325</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C109" s="138">
         <f t="shared" ref="C109:C120" si="9">B109-$C$105</f>
         <v>0.27440581804701325</v>
       </c>
-      <c r="E109" s="54">
+      <c r="E109" s="136">
         <v>4</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="137">
         <f t="shared" ref="F109:F119" si="10">$C$99/($C$99+$C$94)+($C$94/($C$99+$C$94)*EXP(-($C$94+$C$99)*E109))</f>
         <v>0.84960387869800869</v>
       </c>
-      <c r="G109" s="37">
+      <c r="G109" s="138">
         <f t="shared" ref="G109:G119" si="11">F109-$G$105</f>
         <v>0.18293721203134206</v>
       </c>
-      <c r="I109" s="54">
+      <c r="I109" s="136">
         <v>4</v>
       </c>
-      <c r="J109" s="37">
+      <c r="J109" s="137">
         <f t="shared" ref="J109:J120" si="12">$C$99/($C$99+$D$94)+($D$94/($C$99+$D$94)*EXP(-($D$94+$C$99)*I109))</f>
         <v>0.96763967464392198</v>
       </c>
-      <c r="K109" s="37">
+      <c r="K109" s="138">
         <f t="shared" ref="K109:K120" si="13">J109-$K$105</f>
         <v>5.8548765553012916E-2</v>
       </c>
-      <c r="M109" s="54">
+      <c r="M109" s="136">
         <v>4</v>
       </c>
-      <c r="N109" s="37">
+      <c r="N109" s="137">
         <f t="shared" ref="N109:N123" si="14">$C$99/($C$99+$E$94)+($E$94/($C$99+$E$94)*EXP(-($E$94+$C$99)*M109))</f>
         <v>0.98366889618166931</v>
       </c>
-      <c r="O109" s="37">
+      <c r="O109" s="138">
         <f t="shared" ref="O109:O123" si="15">N109-$O$105</f>
         <v>3.1287943800716977E-2</v>
       </c>
-      <c r="Q109" s="54">
+      <c r="Q109" s="136">
         <v>2</v>
       </c>
-      <c r="R109" s="37">
+      <c r="R109" s="137">
         <f t="shared" ref="R109:R123" si="16">$C$99/($C$99+$F$94)+($F$94/($C$99+$F$94)*EXP(-($F$94+$C$99)*Q109))</f>
         <v>0.99818905869249741</v>
       </c>
-      <c r="S109" s="37">
+      <c r="S109" s="138">
         <f t="shared" ref="S109:S123" si="17">R109-$S$105</f>
         <v>8.0900487915073205E-3</v>
       </c>
-      <c r="U109" s="54">
+      <c r="U109" s="136">
         <v>2</v>
       </c>
-      <c r="V109" s="37">
+      <c r="V109" s="137">
         <f t="shared" ref="V109:V123" si="18">$C$99/($C$99+$G$94)+($G$94/($C$99+$G$94)*EXP(-($G$94+$C$99)*U109))</f>
         <v>0.99909409169927299</v>
       </c>
-      <c r="W109" s="37">
+      <c r="W109" s="138">
         <f t="shared" ref="W109:W122" si="19">V109-$W$105</f>
         <v>4.0692160773824204E-3</v>
       </c>
-      <c r="Y109" s="60">
+      <c r="Y109" s="149">
         <v>0.01</v>
       </c>
-      <c r="Z109" s="59">
+      <c r="Z109" s="140">
         <f t="shared" ref="Z109:Z123" si="20">$C$99/($C$99+$H$94)+($H$94/($C$99+$H$94)*EXP(-($H$94+$C$99)*Y109))</f>
         <v>0.99999900050033297</v>
       </c>
-      <c r="AA109" s="59">
+      <c r="AA109" s="141">
         <f t="shared" ref="AA109:AA123" si="21">Z109-$AA$105</f>
         <v>9.9800149933393367E-4</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="54">
+      <c r="A110" s="136">
         <v>6</v>
       </c>
-      <c r="B110" s="37">
+      <c r="B110" s="137">
         <f t="shared" si="8"/>
         <v>0.65059710595610099</v>
       </c>
-      <c r="C110" s="37">
+      <c r="C110" s="138">
         <f t="shared" si="9"/>
         <v>0.15059710595610099</v>
       </c>
-      <c r="E110" s="54">
+      <c r="E110" s="136">
         <v>8</v>
       </c>
-      <c r="F110" s="37">
+      <c r="F110" s="137">
         <f t="shared" si="10"/>
         <v>0.76706473730406732</v>
       </c>
-      <c r="G110" s="37">
+      <c r="G110" s="138">
         <f t="shared" si="11"/>
         <v>0.10039807063740069</v>
       </c>
-      <c r="I110" s="54">
+      <c r="I110" s="136">
         <v>8</v>
       </c>
-      <c r="J110" s="37">
+      <c r="J110" s="137">
         <f t="shared" si="12"/>
         <v>0.94679844651650746</v>
       </c>
-      <c r="K110" s="37">
+      <c r="K110" s="138">
         <f t="shared" si="13"/>
         <v>3.7707537425598403E-2</v>
       </c>
-      <c r="M110" s="54">
+      <c r="M110" s="136">
         <v>8</v>
       </c>
-      <c r="N110" s="37">
+      <c r="N110" s="137">
         <f t="shared" si="14"/>
         <v>0.97293859635376567</v>
       </c>
-      <c r="O110" s="37">
+      <c r="O110" s="138">
         <f t="shared" si="15"/>
         <v>2.0557643972813344E-2</v>
       </c>
-      <c r="Q110" s="54">
+      <c r="Q110" s="136">
         <v>4</v>
       </c>
-      <c r="R110" s="37">
+      <c r="R110" s="137">
         <f t="shared" si="16"/>
         <v>0.99670934773533593</v>
       </c>
-      <c r="S110" s="37">
+      <c r="S110" s="138">
         <f t="shared" si="17"/>
         <v>6.6103378343458363E-3</v>
       </c>
-      <c r="U110" s="54">
+      <c r="U110" s="136">
         <v>4</v>
       </c>
-      <c r="V110" s="37">
+      <c r="V110" s="137">
         <f t="shared" si="18"/>
         <v>0.99835313803826042</v>
       </c>
-      <c r="W110" s="37">
+      <c r="W110" s="138">
         <f t="shared" si="19"/>
         <v>3.3282624163698538E-3</v>
       </c>
-      <c r="Y110" s="4">
+      <c r="Y110" s="148">
         <v>0.02</v>
       </c>
-      <c r="Z110" s="37">
+      <c r="Z110" s="137">
         <f t="shared" si="20"/>
         <v>0.99999800200066458</v>
       </c>
-      <c r="AA110" s="37">
+      <c r="AA110" s="138">
         <f t="shared" si="21"/>
         <v>9.9700299966554162E-4</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="54">
+      <c r="A111" s="136">
         <v>9</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="137">
         <f t="shared" si="8"/>
         <v>0.58264944411079322</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C111" s="138">
         <f t="shared" si="9"/>
         <v>8.2649444110793224E-2</v>
       </c>
-      <c r="E111" s="54">
+      <c r="E111" s="136">
         <v>12</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="137">
         <f t="shared" si="10"/>
         <v>0.72176629607386211</v>
       </c>
-      <c r="G111" s="37">
+      <c r="G111" s="138">
         <f t="shared" si="11"/>
         <v>5.5099629407195483E-2</v>
       </c>
-      <c r="I111" s="54">
+      <c r="I111" s="136">
         <v>12</v>
       </c>
-      <c r="J111" s="37">
+      <c r="J111" s="137">
         <f t="shared" si="12"/>
         <v>0.93337593654235007</v>
       </c>
-      <c r="K111" s="37">
+      <c r="K111" s="138">
         <f t="shared" si="13"/>
         <v>2.428502745144101E-2</v>
       </c>
-      <c r="M111" s="54">
+      <c r="M111" s="136">
         <v>12</v>
       </c>
-      <c r="N111" s="37">
+      <c r="N111" s="137">
         <f t="shared" si="14"/>
         <v>0.96588828697617946</v>
       </c>
-      <c r="O111" s="37">
+      <c r="O111" s="138">
         <f t="shared" si="15"/>
         <v>1.3507334595227127E-2</v>
       </c>
-      <c r="Q111" s="54">
+      <c r="Q111" s="136">
         <v>6</v>
       </c>
-      <c r="R111" s="37">
+      <c r="R111" s="137">
         <f t="shared" si="16"/>
         <v>0.9955002834174187</v>
       </c>
-      <c r="S111" s="37">
+      <c r="S111" s="138">
         <f t="shared" si="17"/>
         <v>5.4012735164286063E-3</v>
       </c>
-      <c r="U111" s="54">
+      <c r="U111" s="136">
         <v>6</v>
       </c>
-      <c r="V111" s="37">
+      <c r="V111" s="137">
         <f t="shared" si="18"/>
         <v>0.99774710282771295</v>
       </c>
-      <c r="W111" s="37">
+      <c r="W111" s="138">
         <f t="shared" si="19"/>
         <v>2.7222272058223806E-3</v>
       </c>
-      <c r="Y111" s="4">
+      <c r="Y111" s="148">
         <v>0.03</v>
       </c>
-      <c r="Z111" s="37">
+      <c r="Z111" s="137">
         <f t="shared" si="20"/>
         <v>0.99999700449999429</v>
       </c>
-      <c r="AA111" s="37">
+      <c r="AA111" s="138">
         <f t="shared" si="21"/>
         <v>9.9600549899525603E-4</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="54">
+      <c r="A112" s="136">
         <v>12</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B112" s="137">
         <f t="shared" si="8"/>
         <v>0.54535897664470623</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="138">
         <f t="shared" si="9"/>
         <v>4.5358976644706228E-2</v>
       </c>
-      <c r="E112" s="54">
+      <c r="E112" s="136">
         <v>16</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="137">
         <f t="shared" si="10"/>
         <v>0.69690598442980412</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="138">
         <f t="shared" si="11"/>
         <v>3.0239317763137485E-2</v>
       </c>
-      <c r="I112" s="54">
+      <c r="I112" s="136">
         <v>16</v>
       </c>
-      <c r="J112" s="37">
+      <c r="J112" s="137">
         <f t="shared" si="12"/>
         <v>0.92473135125664108</v>
       </c>
-      <c r="K112" s="37">
+      <c r="K112" s="138">
         <f t="shared" si="13"/>
         <v>1.5640442165732016E-2</v>
       </c>
-      <c r="M112" s="54">
+      <c r="M112" s="136">
         <v>16</v>
       </c>
-      <c r="N112" s="37">
+      <c r="N112" s="137">
         <f t="shared" si="14"/>
         <v>0.96125590362092428</v>
       </c>
-      <c r="O112" s="37">
+      <c r="O112" s="138">
         <f t="shared" si="15"/>
         <v>8.874951239971951E-3</v>
       </c>
-      <c r="Q112" s="54">
+      <c r="Q112" s="136">
         <v>8</v>
       </c>
-      <c r="R112" s="37">
+      <c r="R112" s="137">
         <f t="shared" si="16"/>
         <v>0.99451236309569269</v>
       </c>
-      <c r="S112" s="37">
+      <c r="S112" s="138">
         <f t="shared" si="17"/>
         <v>4.4133531947025961E-3</v>
       </c>
-      <c r="U112" s="54">
+      <c r="U112" s="136">
         <v>8</v>
       </c>
-      <c r="V112" s="37">
+      <c r="V112" s="137">
         <f t="shared" si="18"/>
         <v>0.99725141909504689</v>
       </c>
-      <c r="W112" s="37">
+      <c r="W112" s="138">
         <f t="shared" si="19"/>
         <v>2.2265434731563172E-3</v>
       </c>
-      <c r="Y112" s="4">
+      <c r="Y112" s="148">
         <v>0.04</v>
       </c>
-      <c r="Z112" s="37">
+      <c r="Z112" s="137">
         <f t="shared" si="20"/>
         <v>0.99999600799732258</v>
       </c>
-      <c r="AA112" s="37">
+      <c r="AA112" s="138">
         <f t="shared" si="21"/>
         <v>9.9500899632354312E-4</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="54">
+      <c r="A113" s="136">
         <v>15</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B113" s="137">
         <f t="shared" si="8"/>
         <v>0.52489353418393192</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C113" s="138">
         <f t="shared" si="9"/>
         <v>2.489353418393192E-2</v>
       </c>
-      <c r="E113" s="54">
+      <c r="E113" s="136">
         <v>20</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="137">
         <f t="shared" si="10"/>
         <v>0.68326235612262132</v>
       </c>
-      <c r="G113" s="37">
+      <c r="G113" s="138">
         <f t="shared" si="11"/>
         <v>1.6595689455954687E-2</v>
       </c>
-      <c r="I113" s="54">
+      <c r="I113" s="136">
         <v>20</v>
       </c>
-      <c r="J113" s="37">
+      <c r="J113" s="137">
         <f t="shared" si="12"/>
         <v>0.91916392348748499</v>
       </c>
-      <c r="K113" s="37">
+      <c r="K113" s="138">
         <f t="shared" si="13"/>
         <v>1.007301439657593E-2</v>
       </c>
-      <c r="M113" s="54">
+      <c r="M113" s="136">
         <v>20</v>
       </c>
-      <c r="N113" s="37">
+      <c r="N113" s="137">
         <f t="shared" si="14"/>
         <v>0.95821221086918951</v>
       </c>
-      <c r="O113" s="37">
+      <c r="O113" s="138">
         <f t="shared" si="15"/>
         <v>5.8312584882371787E-3</v>
       </c>
-      <c r="Q113" s="54">
+      <c r="Q113" s="136">
         <v>10</v>
       </c>
-      <c r="R113" s="37">
+      <c r="R113" s="137">
         <f t="shared" si="16"/>
         <v>0.99370513841159924</v>
       </c>
-      <c r="S113" s="37">
+      <c r="S113" s="138">
         <f t="shared" si="17"/>
         <v>3.6061285106091523E-3</v>
       </c>
-      <c r="U113" s="54">
+      <c r="U113" s="136">
         <v>10</v>
       </c>
-      <c r="V113" s="37">
+      <c r="V113" s="137">
         <f t="shared" si="18"/>
         <v>0.99684599320798017</v>
       </c>
-      <c r="W113" s="37">
+      <c r="W113" s="138">
         <f t="shared" si="19"/>
         <v>1.8211175860896045E-3</v>
       </c>
-      <c r="Y113" s="4">
+      <c r="Y113" s="148">
         <v>0.05</v>
       </c>
-      <c r="Z113" s="37">
+      <c r="Z113" s="137">
         <f t="shared" si="20"/>
         <v>0.99999501249165101</v>
       </c>
-      <c r="AA113" s="37">
+      <c r="AA113" s="138">
         <f t="shared" si="21"/>
         <v>9.940134906519793E-4</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="54">
+      <c r="A114" s="136">
         <v>18</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B114" s="137">
         <f t="shared" si="8"/>
         <v>0.51366186122364632</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="138">
         <f t="shared" si="9"/>
         <v>1.3661861223646321E-2</v>
       </c>
-      <c r="E114" s="54">
+      <c r="E114" s="136">
         <v>24</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="137">
         <f t="shared" si="10"/>
         <v>0.67577457414909747</v>
       </c>
-      <c r="G114" s="37">
+      <c r="G114" s="138">
         <f t="shared" si="11"/>
         <v>9.1079074824308437E-3</v>
       </c>
-      <c r="I114" s="54">
+      <c r="I114" s="136">
         <v>24</v>
       </c>
-      <c r="J114" s="37">
+      <c r="J114" s="137">
         <f t="shared" si="12"/>
         <v>0.91557829723239881</v>
       </c>
-      <c r="K114" s="37">
+      <c r="K114" s="138">
         <f t="shared" si="13"/>
         <v>6.4873881414897472E-3</v>
       </c>
-      <c r="M114" s="54">
+      <c r="M114" s="136">
         <v>24</v>
       </c>
-      <c r="N114" s="37">
+      <c r="N114" s="137">
         <f t="shared" si="14"/>
         <v>0.95621236222616812</v>
       </c>
-      <c r="O114" s="37">
+      <c r="O114" s="138">
         <f t="shared" si="15"/>
         <v>3.8314098452157941E-3</v>
       </c>
-      <c r="Q114" s="54">
+      <c r="Q114" s="136">
         <v>12</v>
       </c>
-      <c r="R114" s="37">
+      <c r="R114" s="137">
         <f t="shared" si="16"/>
         <v>0.99304555921651672</v>
       </c>
-      <c r="S114" s="37">
+      <c r="S114" s="138">
         <f t="shared" si="17"/>
         <v>2.9465493155266254E-3</v>
       </c>
-      <c r="U114" s="54">
+      <c r="U114" s="136">
         <v>12</v>
       </c>
-      <c r="V114" s="37">
+      <c r="V114" s="137">
         <f t="shared" si="18"/>
         <v>0.99651439033487466</v>
       </c>
-      <c r="W114" s="37">
+      <c r="W114" s="138">
         <f t="shared" si="19"/>
         <v>1.4895147129840858E-3</v>
       </c>
-      <c r="Y114" s="4">
+      <c r="Y114" s="148">
         <v>0.06</v>
       </c>
-      <c r="Z114" s="37">
+      <c r="Z114" s="137">
         <f t="shared" si="20"/>
         <v>0.99999401798198195</v>
       </c>
-      <c r="AA114" s="37">
+      <c r="AA114" s="138">
         <f t="shared" si="21"/>
         <v>9.9301898098291819E-4</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="54">
+      <c r="A115" s="136">
         <v>21</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B115" s="137">
         <f t="shared" si="8"/>
         <v>0.50749778841023885</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="138">
         <f t="shared" si="9"/>
         <v>7.4977884102388481E-3</v>
       </c>
-      <c r="E115" s="54">
+      <c r="E115" s="136">
         <v>28</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="137">
         <f t="shared" si="10"/>
         <v>0.67166519227349253</v>
       </c>
-      <c r="G115" s="37">
+      <c r="G115" s="138">
         <f t="shared" si="11"/>
         <v>4.9985256068258987E-3</v>
       </c>
-      <c r="I115" s="54">
+      <c r="I115" s="136">
         <v>28</v>
       </c>
-      <c r="J115" s="37">
+      <c r="J115" s="137">
         <f t="shared" si="12"/>
         <v>0.91326902333173132</v>
       </c>
-      <c r="K115" s="37">
+      <c r="K115" s="138">
         <f t="shared" si="13"/>
         <v>4.1781142408222616E-3</v>
       </c>
-      <c r="M115" s="54">
+      <c r="M115" s="136">
         <v>28</v>
       </c>
-      <c r="N115" s="37">
+      <c r="N115" s="137">
         <f t="shared" si="14"/>
         <v>0.95489836803515948</v>
       </c>
-      <c r="O115" s="37">
+      <c r="O115" s="138">
         <f t="shared" si="15"/>
         <v>2.5174156542071557E-3</v>
       </c>
-      <c r="Q115" s="54">
+      <c r="Q115" s="136">
         <v>14</v>
       </c>
-      <c r="R115" s="37">
+      <c r="R115" s="137">
         <f t="shared" si="16"/>
         <v>0.99250662040163862</v>
       </c>
-      <c r="S115" s="37">
+      <c r="S115" s="138">
         <f t="shared" si="17"/>
         <v>2.4076105006485271E-3</v>
       </c>
-      <c r="U115" s="54">
+      <c r="U115" s="136">
         <v>14</v>
       </c>
-      <c r="V115" s="37">
+      <c r="V115" s="137">
         <f t="shared" si="18"/>
         <v>0.9962431682226226</v>
       </c>
-      <c r="W115" s="37">
+      <c r="W115" s="138">
         <f t="shared" si="19"/>
         <v>1.2182926007320294E-3</v>
       </c>
-      <c r="Y115" s="4">
+      <c r="Y115" s="148">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z115" s="37">
+      <c r="Z115" s="137">
         <f t="shared" si="20"/>
         <v>0.99999302446731908</v>
       </c>
-      <c r="AA115" s="37">
+      <c r="AA115" s="138">
         <f t="shared" si="21"/>
         <v>9.9202546632004562E-4</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A116" s="54">
+      <c r="A116" s="136">
         <v>24</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B116" s="137">
         <f t="shared" si="8"/>
         <v>0.50411487352451001</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C116" s="138">
         <f t="shared" si="9"/>
         <v>4.1148735245100099E-3</v>
       </c>
-      <c r="E116" s="54">
+      <c r="E116" s="136">
         <v>32</v>
       </c>
-      <c r="F116" s="37">
+      <c r="F116" s="137">
         <f t="shared" si="10"/>
         <v>0.66940991568300667</v>
       </c>
-      <c r="G116" s="37">
+      <c r="G116" s="138">
         <f t="shared" si="11"/>
         <v>2.7432490163400436E-3</v>
       </c>
-      <c r="I116" s="54">
+      <c r="I116" s="136">
         <v>32</v>
       </c>
-      <c r="J116" s="37">
+      <c r="J116" s="137">
         <f t="shared" si="12"/>
         <v>0.91178176683344481</v>
       </c>
-      <c r="K116" s="37">
+      <c r="K116" s="138">
         <f t="shared" si="13"/>
         <v>2.6908577425357461E-3</v>
       </c>
-      <c r="M116" s="54">
+      <c r="M116" s="136">
         <v>32</v>
       </c>
-      <c r="N116" s="37">
+      <c r="N116" s="137">
         <f t="shared" si="14"/>
         <v>0.95403501233070176</v>
       </c>
-      <c r="O116" s="37">
+      <c r="O116" s="138">
         <f t="shared" si="15"/>
         <v>1.6540599497494313E-3</v>
       </c>
-      <c r="Q116" s="54">
+      <c r="Q116" s="136">
         <v>16</v>
       </c>
-      <c r="R116" s="37">
+      <c r="R116" s="137">
         <f t="shared" si="16"/>
         <v>0.99206625622953037</v>
       </c>
-      <c r="S116" s="37">
+      <c r="S116" s="138">
         <f t="shared" si="17"/>
         <v>1.9672463285402841E-3</v>
       </c>
-      <c r="U116" s="58">
+      <c r="U116" s="147">
         <v>16</v>
       </c>
-      <c r="V116" s="59">
+      <c r="V116" s="140">
         <f t="shared" si="18"/>
         <v>0.99602133228529943</v>
       </c>
-      <c r="W116" s="59">
+      <c r="W116" s="141">
         <f t="shared" si="19"/>
         <v>9.964566634088623E-4</v>
       </c>
-      <c r="Y116" s="4">
+      <c r="Y116" s="148">
         <v>0.08</v>
       </c>
-      <c r="Z116" s="37">
+      <c r="Z116" s="137">
         <f t="shared" si="20"/>
         <v>0.99999203194666675</v>
       </c>
-      <c r="AA116" s="37">
+      <c r="AA116" s="138">
         <f t="shared" si="21"/>
         <v>9.9103294566771361E-4</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A117" s="54">
+      <c r="A117" s="136">
         <v>27</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B117" s="137">
         <f t="shared" si="8"/>
         <v>0.50225829047130632</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C117" s="138">
         <f t="shared" si="9"/>
         <v>2.2582904713063234E-3</v>
       </c>
-      <c r="E117" s="54">
+      <c r="E117" s="136">
         <v>36</v>
       </c>
-      <c r="F117" s="37">
+      <c r="F117" s="137">
         <f t="shared" si="10"/>
         <v>0.66817219364753755</v>
       </c>
-      <c r="G117" s="37">
+      <c r="G117" s="138">
         <f t="shared" si="11"/>
         <v>1.5055269808709193E-3</v>
       </c>
-      <c r="I117" s="54">
+      <c r="I117" s="136">
         <v>36</v>
       </c>
-      <c r="J117" s="37">
+      <c r="J117" s="137">
         <f t="shared" si="12"/>
         <v>0.91082391948105568</v>
       </c>
-      <c r="K117" s="37">
+      <c r="K117" s="138">
         <f t="shared" si="13"/>
         <v>1.7330103901466165E-3</v>
       </c>
-      <c r="M117" s="54">
+      <c r="M117" s="136">
         <v>36</v>
       </c>
-      <c r="N117" s="37">
+      <c r="N117" s="137">
         <f t="shared" si="14"/>
         <v>0.9534677472107187</v>
       </c>
-      <c r="O117" s="37">
+      <c r="O117" s="138">
         <f t="shared" si="15"/>
         <v>1.0867948297663688E-3</v>
       </c>
-      <c r="Q117" s="54">
+      <c r="Q117" s="136">
         <v>18</v>
       </c>
-      <c r="R117" s="37">
+      <c r="R117" s="137">
         <f t="shared" si="16"/>
         <v>0.99170643689805338</v>
       </c>
-      <c r="S117" s="37">
+      <c r="S117" s="138">
         <f t="shared" si="17"/>
         <v>1.6074269970632882E-3</v>
       </c>
-      <c r="U117" s="54">
+      <c r="U117" s="136">
         <v>18</v>
       </c>
-      <c r="V117" s="37">
+      <c r="V117" s="137">
         <f t="shared" si="18"/>
         <v>0.99583988991439731</v>
       </c>
-      <c r="W117" s="37">
+      <c r="W117" s="138">
         <f t="shared" si="19"/>
         <v>8.1501429250674384E-4</v>
       </c>
-      <c r="Y117" s="4">
+      <c r="Y117" s="148">
         <v>0.09</v>
       </c>
-      <c r="Z117" s="37">
+      <c r="Z117" s="137">
         <f t="shared" si="20"/>
         <v>0.99999104041903053</v>
       </c>
-      <c r="AA117" s="37">
+      <c r="AA117" s="138">
         <f t="shared" si="21"/>
         <v>9.9004141803149537E-4</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A118" s="54">
+      <c r="A118" s="136">
         <v>30</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="137">
         <f t="shared" si="8"/>
         <v>0.50123937608833313</v>
       </c>
-      <c r="C118" s="37">
+      <c r="C118" s="138">
         <f t="shared" si="9"/>
         <v>1.2393760883331328E-3</v>
       </c>
-      <c r="E118" s="63">
+      <c r="E118" s="139">
         <v>38.799999999999997</v>
       </c>
-      <c r="F118" s="59">
+      <c r="F118" s="140">
         <f t="shared" si="10"/>
         <v>0.66765586838159363</v>
       </c>
-      <c r="G118" s="59">
+      <c r="G118" s="141">
         <f t="shared" si="11"/>
         <v>9.892017149270016E-4</v>
       </c>
-      <c r="I118" s="54">
+      <c r="I118" s="136">
         <v>40</v>
       </c>
-      <c r="J118" s="37">
+      <c r="J118" s="137">
         <f t="shared" si="12"/>
         <v>0.91020703090027899</v>
       </c>
-      <c r="K118" s="37">
+      <c r="K118" s="138">
         <f t="shared" si="13"/>
         <v>1.1161218093699299E-3</v>
       </c>
-      <c r="M118" s="58">
+      <c r="M118" s="147">
         <v>40</v>
       </c>
-      <c r="N118" s="59">
+      <c r="N118" s="140">
         <f t="shared" si="14"/>
         <v>0.95309502746764174</v>
       </c>
-      <c r="O118" s="59">
+      <c r="O118" s="141">
         <f t="shared" si="15"/>
         <v>7.1407508668941411E-4</v>
       </c>
-      <c r="Q118" s="54">
+      <c r="Q118" s="136">
         <v>20</v>
       </c>
-      <c r="R118" s="37">
+      <c r="R118" s="137">
         <f t="shared" si="16"/>
         <v>0.99141243034732796</v>
       </c>
-      <c r="S118" s="37">
+      <c r="S118" s="138">
         <f t="shared" si="17"/>
         <v>1.3134204463378651E-3</v>
       </c>
-      <c r="U118" s="54">
+      <c r="U118" s="136">
         <v>20</v>
       </c>
-      <c r="V118" s="37">
+      <c r="V118" s="137">
         <f t="shared" si="18"/>
         <v>0.99569148594362589</v>
       </c>
-      <c r="W118" s="37">
+      <c r="W118" s="138">
         <f t="shared" si="19"/>
         <v>6.6661032173531698E-4</v>
       </c>
-      <c r="Y118" s="4">
+      <c r="Y118" s="148">
         <v>0.1</v>
       </c>
-      <c r="Z118" s="37">
+      <c r="Z118" s="137">
         <f t="shared" si="20"/>
         <v>0.99999004988341689</v>
       </c>
-      <c r="AA118" s="37">
+      <c r="AA118" s="138">
         <f t="shared" si="21"/>
         <v>9.8905088241785233E-4</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A119" s="63">
+      <c r="A119" s="139">
         <v>31.1</v>
       </c>
-      <c r="B119" s="59">
+      <c r="B119" s="140">
         <f t="shared" si="8"/>
         <v>0.50099462260863259</v>
       </c>
-      <c r="C119" s="59">
+      <c r="C119" s="141">
         <f t="shared" si="9"/>
         <v>9.9462260863258933E-4</v>
       </c>
-      <c r="E119" s="54">
+      <c r="E119" s="142">
         <v>44</v>
       </c>
-      <c r="F119" s="37">
+      <c r="F119" s="143">
         <f t="shared" si="10"/>
         <v>0.66712012267918264</v>
       </c>
-      <c r="G119" s="37">
+      <c r="G119" s="144">
         <f t="shared" si="11"/>
         <v>4.5345601251600698E-4</v>
       </c>
-      <c r="I119" s="58">
+      <c r="I119" s="147">
         <v>41</v>
       </c>
-      <c r="J119" s="59">
+      <c r="J119" s="140">
         <f t="shared" si="12"/>
         <v>0.91009076910689157</v>
       </c>
-      <c r="K119" s="59">
+      <c r="K119" s="141">
         <f t="shared" si="13"/>
         <v>9.9986001598251217E-4</v>
       </c>
-      <c r="M119" s="54">
+      <c r="M119" s="136">
         <v>44</v>
       </c>
-      <c r="N119" s="37">
+      <c r="N119" s="137">
         <f t="shared" si="14"/>
         <v>0.95285013314577072</v>
       </c>
-      <c r="O119" s="37">
+      <c r="O119" s="138">
         <f t="shared" si="15"/>
         <v>4.6918076481838877E-4</v>
       </c>
-      <c r="Q119" s="54">
+      <c r="Q119" s="136">
         <v>22</v>
       </c>
-      <c r="R119" s="37">
+      <c r="R119" s="137">
         <f t="shared" si="16"/>
         <v>0.99117219908594834</v>
       </c>
-      <c r="S119" s="37">
+      <c r="S119" s="138">
         <f t="shared" si="17"/>
         <v>1.0731891849582453E-3</v>
       </c>
-      <c r="U119" s="54">
+      <c r="U119" s="136">
         <v>22</v>
       </c>
-      <c r="V119" s="37">
+      <c r="V119" s="137">
         <f t="shared" si="18"/>
         <v>0.99557010449104</v>
       </c>
-      <c r="W119" s="37">
+      <c r="W119" s="138">
         <f t="shared" si="19"/>
         <v>5.4522886914942781E-4</v>
       </c>
-      <c r="Y119" s="4">
+      <c r="Y119" s="148">
         <v>0.11</v>
       </c>
-      <c r="Z119" s="37">
+      <c r="Z119" s="137">
         <f t="shared" si="20"/>
         <v>0.99998906033883328</v>
       </c>
-      <c r="AA119" s="37">
+      <c r="AA119" s="138">
         <f t="shared" si="21"/>
         <v>9.880613378342451E-4</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A120" s="54">
+      <c r="A120" s="142">
         <v>36</v>
       </c>
-      <c r="B120" s="37">
+      <c r="B120" s="143">
         <f t="shared" si="8"/>
         <v>0.5003732929041883</v>
       </c>
-      <c r="C120" s="37">
+      <c r="C120" s="144">
         <f t="shared" si="9"/>
         <v>3.7329290418830485E-4</v>
       </c>
-      <c r="E120" s="54"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
-      <c r="I120" s="54">
+      <c r="I120" s="142">
         <v>48</v>
       </c>
-      <c r="J120" s="37">
+      <c r="J120" s="143">
         <f t="shared" si="12"/>
         <v>0.90955385734479088</v>
       </c>
-      <c r="K120" s="37">
+      <c r="K120" s="144">
         <f t="shared" si="13"/>
         <v>4.6294825388182304E-4</v>
       </c>
-      <c r="M120" s="54">
+      <c r="M120" s="136">
         <v>48</v>
       </c>
-      <c r="N120" s="37">
+      <c r="N120" s="137">
         <f t="shared" si="14"/>
         <v>0.95268922611039464</v>
       </c>
-      <c r="O120" s="37">
+      <c r="O120" s="138">
         <f t="shared" si="15"/>
         <v>3.0827372944230991E-4</v>
       </c>
-      <c r="Q120" s="58">
+      <c r="Q120" s="147">
         <v>24</v>
       </c>
-      <c r="R120" s="59">
+      <c r="R120" s="140">
         <f t="shared" si="16"/>
         <v>0.99097590734074192</v>
       </c>
-      <c r="S120" s="59">
+      <c r="S120" s="141">
         <f t="shared" si="17"/>
         <v>8.7689743975183365E-4</v>
       </c>
-      <c r="U120" s="54">
+      <c r="U120" s="136">
         <v>24</v>
       </c>
-      <c r="V120" s="37">
+      <c r="V120" s="137">
         <f t="shared" si="18"/>
         <v>0.99547082509201001</v>
       </c>
-      <c r="W120" s="37">
+      <c r="W120" s="138">
         <f t="shared" si="19"/>
         <v>4.4594947011944441E-4</v>
       </c>
-      <c r="Y120" s="4">
+      <c r="Y120" s="148">
         <v>0.12</v>
       </c>
-      <c r="Z120" s="37">
+      <c r="Z120" s="137">
         <f t="shared" si="20"/>
         <v>0.99998807178428817</v>
       </c>
-      <c r="AA120" s="37">
+      <c r="AA120" s="138">
         <f t="shared" si="21"/>
         <v>9.870727832891335E-4</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="54"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
-      <c r="E121" s="54"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
-      <c r="I121" s="54"/>
+      <c r="I121" s="53"/>
       <c r="J121" s="37"/>
       <c r="K121" s="37"/>
-      <c r="M121" s="54">
+      <c r="M121" s="136">
         <v>52</v>
       </c>
-      <c r="N121" s="37">
+      <c r="N121" s="137">
         <f t="shared" si="14"/>
         <v>0.95258350265451497</v>
       </c>
-      <c r="O121" s="37">
+      <c r="O121" s="138">
         <f t="shared" si="15"/>
         <v>2.0255027356264055E-4</v>
       </c>
-      <c r="Q121" s="54">
+      <c r="Q121" s="136">
         <v>26</v>
       </c>
-      <c r="R121" s="37">
+      <c r="R121" s="137">
         <f t="shared" si="16"/>
         <v>0.99081551835133685</v>
       </c>
-      <c r="S121" s="37">
+      <c r="S121" s="138">
         <f t="shared" si="17"/>
         <v>7.1650845034676447E-4</v>
       </c>
-      <c r="U121" s="54">
+      <c r="U121" s="136">
         <v>26</v>
       </c>
-      <c r="V121" s="37">
+      <c r="V121" s="137">
         <f t="shared" si="18"/>
         <v>0.99538962323734603</v>
       </c>
-      <c r="W121" s="37">
+      <c r="W121" s="138">
         <f t="shared" si="19"/>
         <v>3.6474761545546297E-4</v>
       </c>
-      <c r="Y121" s="4">
+      <c r="Y121" s="148">
         <v>0.13</v>
       </c>
-      <c r="Z121" s="37">
+      <c r="Z121" s="137">
         <f t="shared" si="20"/>
         <v>0.99998708421879112</v>
       </c>
-      <c r="AA121" s="37">
+      <c r="AA121" s="138">
         <f t="shared" si="21"/>
         <v>9.8608521779208758E-4</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="54"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
-      <c r="E122" s="54"/>
+      <c r="E122" s="53"/>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
-      <c r="I122" s="54"/>
+      <c r="I122" s="53"/>
       <c r="J122" s="37"/>
       <c r="K122" s="37"/>
-      <c r="M122" s="54">
+      <c r="M122" s="136">
         <v>56</v>
       </c>
-      <c r="N122" s="37">
+      <c r="N122" s="137">
         <f t="shared" si="14"/>
         <v>0.95251403739404927</v>
       </c>
-      <c r="O122" s="37">
+      <c r="O122" s="138">
         <f t="shared" si="15"/>
         <v>1.330850130969452E-4</v>
       </c>
-      <c r="Q122" s="54">
+      <c r="Q122" s="136">
         <v>28</v>
       </c>
-      <c r="R122" s="37">
+      <c r="R122" s="137">
         <f t="shared" si="16"/>
         <v>0.99068446532159615</v>
       </c>
-      <c r="S122" s="37">
+      <c r="S122" s="138">
         <f t="shared" si="17"/>
         <v>5.8545542060606248E-4</v>
       </c>
-      <c r="U122" s="54">
+      <c r="U122" s="136">
         <v>28</v>
       </c>
-      <c r="V122" s="37">
+      <c r="V122" s="137">
         <f t="shared" si="18"/>
         <v>0.99532320723095125</v>
       </c>
-      <c r="W122" s="37">
+      <c r="W122" s="138">
         <f t="shared" si="19"/>
         <v>2.983316090606758E-4</v>
       </c>
-      <c r="Y122" s="4">
+      <c r="Y122" s="148">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z122" s="37">
+      <c r="Z122" s="137">
         <f t="shared" si="20"/>
         <v>0.99998609764135249</v>
       </c>
-      <c r="AA122" s="37">
+      <c r="AA122" s="138">
         <f t="shared" si="21"/>
         <v>9.8509864035345451E-4</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
-      <c r="E123" s="54"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
-      <c r="I123" s="54"/>
+      <c r="I123" s="53"/>
       <c r="J123" s="37"/>
       <c r="K123" s="37"/>
-      <c r="M123" s="54">
+      <c r="M123" s="142">
         <v>60</v>
       </c>
-      <c r="N123" s="37">
+      <c r="N123" s="143">
         <f t="shared" si="14"/>
         <v>0.95246839546557271</v>
       </c>
-      <c r="O123" s="37">
+      <c r="O123" s="144">
         <f t="shared" si="15"/>
         <v>8.7443084620386635E-5</v>
       </c>
-      <c r="Q123" s="54">
+      <c r="Q123" s="142">
         <v>30</v>
       </c>
-      <c r="R123" s="37">
+      <c r="R123" s="143">
         <f t="shared" si="16"/>
         <v>0.9905773825557036</v>
       </c>
-      <c r="S123" s="37">
+      <c r="S123" s="144">
         <f t="shared" si="17"/>
         <v>4.7837265471351031E-4</v>
       </c>
-      <c r="U123" s="54">
+      <c r="U123" s="142">
         <v>30</v>
       </c>
-      <c r="V123" s="37">
+      <c r="V123" s="143">
         <f t="shared" si="18"/>
         <v>0.99526888475366682</v>
       </c>
-      <c r="W123" s="37">
+      <c r="W123" s="144">
         <f>V123-$W$181</f>
         <v>0.99526888475366682</v>
       </c>
-      <c r="Y123" s="4">
+      <c r="Y123" s="150">
         <v>0.15</v>
       </c>
-      <c r="Z123" s="37">
+      <c r="Z123" s="143">
         <f t="shared" si="20"/>
         <v>0.99998511205098373</v>
       </c>
-      <c r="AA123" s="37">
+      <c r="AA123" s="144">
         <f t="shared" si="21"/>
         <v>9.8411304998469173E-4</v>
       </c>
@@ -18455,7 +18632,7 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A132" s="61" t="s">
+      <c r="A132" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B132" s="45">
@@ -18530,1513 +18707,1582 @@
       </c>
     </row>
     <row r="139" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="121" t="s">
+      <c r="A139" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="121"/>
-      <c r="C139" s="121"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="121" t="s">
+      <c r="B139" s="152"/>
+      <c r="C139" s="153"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="F139" s="121"/>
-      <c r="G139" s="121"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="121" t="s">
+      <c r="F139" s="152"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="J139" s="121"/>
-      <c r="K139" s="121"/>
-      <c r="M139" s="121" t="s">
+      <c r="J139" s="152"/>
+      <c r="K139" s="153"/>
+      <c r="M139" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="N139" s="121"/>
-      <c r="O139" s="121"/>
-      <c r="Q139" s="121" t="s">
+      <c r="N139" s="152"/>
+      <c r="O139" s="153"/>
+      <c r="Q139" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="R139" s="121"/>
-      <c r="S139" s="121"/>
-      <c r="U139" s="121" t="s">
+      <c r="R139" s="152"/>
+      <c r="S139" s="153"/>
+      <c r="U139" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="V139" s="121"/>
-      <c r="W139" s="121"/>
-      <c r="Y139" s="121" t="s">
+      <c r="V139" s="152"/>
+      <c r="W139" s="153"/>
+      <c r="Y139" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="Z139" s="121"/>
-      <c r="AA139" s="121"/>
+      <c r="Z139" s="152"/>
+      <c r="AA139" s="153"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A140" s="127"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="129"/>
+      <c r="E140" s="127"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="129"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="128"/>
+      <c r="K140" s="129"/>
+      <c r="M140" s="127"/>
+      <c r="N140" s="128"/>
+      <c r="O140" s="129"/>
+      <c r="Q140" s="127"/>
+      <c r="R140" s="128"/>
+      <c r="S140" s="129"/>
+      <c r="U140" s="127"/>
+      <c r="V140" s="128"/>
+      <c r="W140" s="129"/>
+      <c r="Y140" s="127"/>
+      <c r="Z140" s="128"/>
+      <c r="AA140" s="129"/>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="155">
         <f>$C$137/($C$137+$B$132)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="G141" s="21">
+      <c r="G141" s="155">
         <f>$C$137/($C$137+$C$132)</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="I141" s="21" t="s">
+      <c r="I141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="J141" s="21" t="s">
+      <c r="J141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="K141" s="21">
+      <c r="K141" s="155">
         <f>$C$137/($C$137+$D$132)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="M141" s="21" t="s">
+      <c r="M141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N141" s="21" t="s">
+      <c r="N141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="O141" s="21">
+      <c r="O141" s="155">
         <f>$C$137/($C$137+$E$132)</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="Q141" s="21" t="s">
+      <c r="Q141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="R141" s="21" t="s">
+      <c r="R141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="S141" s="21">
+      <c r="S141" s="155">
         <f>$C$137/($C$137+$F$132)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U141" s="21" t="s">
+      <c r="U141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="V141" s="21" t="s">
+      <c r="V141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="W141" s="21">
+      <c r="W141" s="155">
         <f>$C$137/($C$137+$G$132)</f>
         <v>0.79365079365079361</v>
       </c>
-      <c r="Y141" s="21" t="s">
+      <c r="Y141" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="Z141" s="21" t="s">
+      <c r="Z141" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="AA141" s="21">
+      <c r="AA141" s="155">
         <f>$C$137/($C$137+$H$132)</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A142" s="127"/>
+      <c r="B142" s="128"/>
+      <c r="C142" s="129"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="128"/>
+      <c r="G142" s="129"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="128"/>
+      <c r="K142" s="129"/>
+      <c r="M142" s="127"/>
+      <c r="N142" s="128"/>
+      <c r="O142" s="129"/>
+      <c r="Q142" s="127"/>
+      <c r="R142" s="128"/>
+      <c r="S142" s="129"/>
+      <c r="U142" s="127"/>
+      <c r="V142" s="128"/>
+      <c r="W142" s="129"/>
+      <c r="Y142" s="127"/>
+      <c r="Z142" s="128"/>
+      <c r="AA142" s="129"/>
+    </row>
     <row r="143" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="50" t="s">
+      <c r="A143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C143" s="21">
+      <c r="C143" s="155">
         <f>1/B132</f>
         <v>1</v>
       </c>
-      <c r="E143" s="50" t="s">
+      <c r="E143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="155">
         <f>1/C132</f>
         <v>0.2</v>
       </c>
-      <c r="I143" s="50" t="s">
+      <c r="I143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J143" s="21" t="s">
+      <c r="J143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="K143" s="21">
+      <c r="K143" s="155">
         <f>1/D132</f>
         <v>0.1</v>
       </c>
-      <c r="M143" s="50" t="s">
+      <c r="M143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="N143" s="21" t="s">
+      <c r="N143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="O143" s="21">
+      <c r="O143" s="155">
         <f>1/E132</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="Q143" s="50" t="s">
+      <c r="Q143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="R143" s="21" t="s">
+      <c r="R143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="S143" s="21">
+      <c r="S143" s="155">
         <f>1/F132</f>
         <v>0.05</v>
       </c>
-      <c r="U143" s="50" t="s">
+      <c r="U143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="V143" s="21" t="s">
+      <c r="V143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="W143" s="21">
+      <c r="W143" s="155">
         <f>1/G132</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="Y143" s="50" t="s">
+      <c r="Y143" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="Z143" s="21" t="s">
+      <c r="Z143" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="AA143" s="21">
+      <c r="AA143" s="155">
         <f>1/H132</f>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A144" s="127"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="129"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="128"/>
+      <c r="G144" s="129"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="128"/>
+      <c r="K144" s="129"/>
+      <c r="M144" s="127"/>
+      <c r="N144" s="128"/>
+      <c r="O144" s="129"/>
+      <c r="Q144" s="127"/>
+      <c r="R144" s="128"/>
+      <c r="S144" s="129"/>
+      <c r="U144" s="127"/>
+      <c r="V144" s="128"/>
+      <c r="W144" s="129"/>
+      <c r="Y144" s="127"/>
+      <c r="Z144" s="128"/>
+      <c r="AA144" s="129"/>
+    </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="C145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="52" t="s">
+      <c r="E145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="52" t="s">
+      <c r="F145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="G145" s="52" t="s">
+      <c r="G145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="I145" s="52" t="s">
+      <c r="I145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="J145" s="52" t="s">
+      <c r="J145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="K145" s="52" t="s">
+      <c r="K145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="M145" s="52" t="s">
+      <c r="M145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="N145" s="52" t="s">
+      <c r="N145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="O145" s="52" t="s">
+      <c r="O145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Q145" s="52" t="s">
+      <c r="Q145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="R145" s="52" t="s">
+      <c r="R145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="S145" s="52" t="s">
+      <c r="S145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="U145" s="52" t="s">
+      <c r="U145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="V145" s="52" t="s">
+      <c r="V145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="W145" s="52" t="s">
+      <c r="W145" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Y145" s="52" t="s">
+      <c r="Y145" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="Z145" s="52" t="s">
+      <c r="Z145" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="AA145" s="52" t="s">
+      <c r="AA145" s="135" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A146" s="38">
-        <v>0</v>
-      </c>
-      <c r="B146" s="37">
+      <c r="A146" s="157">
+        <v>0</v>
+      </c>
+      <c r="B146" s="137">
         <f>$C$143/($C$143+$C$135)+($C$135/($C$143+$C$135)*EXP(-($C$135+$C$143)*A146))</f>
         <v>1</v>
       </c>
-      <c r="C146" s="37">
+      <c r="C146" s="138">
         <f>B146-$C$141</f>
         <v>9.9009900990099098E-3</v>
       </c>
-      <c r="E146" s="54">
-        <v>0</v>
-      </c>
-      <c r="F146" s="37">
+      <c r="E146" s="136">
+        <v>0</v>
+      </c>
+      <c r="F146" s="137">
         <f>$G$143/($G$143+$C$135)+($C$135/($G$143+$C$135)*EXP(-($C$135+$G$143)*E146))</f>
         <v>1</v>
       </c>
-      <c r="G146" s="37">
+      <c r="G146" s="138">
         <f>F146-$G$141</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="I146" s="54">
-        <v>0</v>
-      </c>
-      <c r="J146" s="37">
+      <c r="I146" s="136">
+        <v>0</v>
+      </c>
+      <c r="J146" s="137">
         <f>$K$143/($K$143+$C$135)+($C$135/($K$143+$C$135)*EXP(-($C$135+$K$143)*I146))</f>
         <v>1</v>
       </c>
-      <c r="K146" s="37">
+      <c r="K146" s="138">
         <f>J146-$K$141</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="M146" s="54">
-        <v>0</v>
-      </c>
-      <c r="N146" s="37">
+      <c r="M146" s="136">
+        <v>0</v>
+      </c>
+      <c r="N146" s="137">
         <f>$O$143/($O$143+$C$135)+($C$135/($O$143+$C$135)*EXP(-($C$135+$O$143)*M146))</f>
         <v>1</v>
       </c>
-      <c r="O146" s="37">
+      <c r="O146" s="138">
         <f>N146-$O$141</f>
         <v>0.13043478260869568</v>
       </c>
-      <c r="Q146" s="54">
-        <v>0</v>
-      </c>
-      <c r="R146" s="37">
+      <c r="Q146" s="136">
+        <v>0</v>
+      </c>
+      <c r="R146" s="137">
         <f>$S$143/($S$143+$C$135)+($C$135/($S$143+$C$135)*EXP(-($C$135+$S$143)*Q146))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S146" s="37">
+      <c r="S146" s="138">
         <f>R146-$S$141</f>
         <v>0.16666666666666652</v>
       </c>
-      <c r="U146" s="54">
-        <v>0</v>
-      </c>
-      <c r="V146" s="37">
+      <c r="U146" s="136">
+        <v>0</v>
+      </c>
+      <c r="V146" s="137">
         <f>$W$143/($W$143+$C$135)+($C$135/($W$143+$C$135)*EXP(-($C$135+$W$143)*U146))</f>
         <v>1</v>
       </c>
-      <c r="W146" s="37">
+      <c r="W146" s="138">
         <f>V146-$W$141</f>
         <v>0.20634920634920639</v>
       </c>
-      <c r="Y146" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z146" s="37">
+      <c r="Y146" s="136">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="137">
         <f>$AA$143/($AA$143+$C$135)+($C$135/($AA$143+$C$135)*EXP(-($C$135+$AA$143)*Y146))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AA146" s="37">
+      <c r="AA146" s="138">
         <f>Z146-$AA$141</f>
         <v>0.23076923076923062</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A147" s="38">
+      <c r="A147" s="157">
         <v>0.5</v>
       </c>
-      <c r="B147" s="37">
+      <c r="B147" s="137">
         <f t="shared" ref="B147:B161" si="22">$C$143/($C$143+$C$135)+($C$135/($C$143+$C$135)*EXP(-($C$135+$C$143)*A147))</f>
         <v>0.99607431262799051</v>
       </c>
-      <c r="C147" s="37">
+      <c r="C147" s="138">
         <f t="shared" ref="C147:C161" si="23">B147-$C$141</f>
         <v>5.97530272700042E-3</v>
       </c>
-      <c r="E147" s="54">
+      <c r="E147" s="136">
         <v>2</v>
       </c>
-      <c r="F147" s="37">
+      <c r="F147" s="137">
         <f t="shared" ref="F147:F161" si="24">$G$143/($G$143+$C$135)+($C$135/($G$143+$C$135)*EXP(-($C$135+$G$143)*E147))</f>
         <v>0.98366889618166931</v>
       </c>
-      <c r="G147" s="37">
+      <c r="G147" s="138">
         <f t="shared" ref="G147:G161" si="25">F147-$G$141</f>
         <v>3.1287943800716977E-2</v>
       </c>
-      <c r="I147" s="54">
+      <c r="I147" s="136">
         <v>3</v>
       </c>
-      <c r="J147" s="37">
+      <c r="J147" s="137">
         <f t="shared" ref="J147:J161" si="26">$K$143/($K$143+$C$135)+($C$135/($K$143+$C$135)*EXP(-($C$135+$K$143)*I147))</f>
         <v>0.97444761213017517</v>
       </c>
-      <c r="K147" s="37">
+      <c r="K147" s="138">
         <f t="shared" ref="K147:K161" si="27">J147-$K$141</f>
         <v>6.5356703039266106E-2</v>
       </c>
-      <c r="M147" s="54">
+      <c r="M147" s="136">
         <v>5</v>
       </c>
-      <c r="N147" s="37">
+      <c r="N147" s="137">
         <f t="shared" ref="N147:N161" si="28">$O$143/($O$143+$C$135)+($C$135/($O$143+$C$135)*EXP(-($C$135+$O$143)*M147))</f>
         <v>0.95846769559050204</v>
       </c>
-      <c r="O147" s="37">
+      <c r="O147" s="138">
         <f t="shared" ref="O147:O161" si="29">N147-$O$141</f>
         <v>8.8902478199197721E-2</v>
       </c>
-      <c r="Q147" s="54">
+      <c r="Q147" s="136">
         <v>7</v>
       </c>
-      <c r="R147" s="37">
+      <c r="R147" s="137">
         <f t="shared" ref="R147:R161" si="30">$S$143/($S$143+$C$135)+($C$135/($S$143+$C$135)*EXP(-($C$135+$S$143)*Q147))</f>
         <v>0.94284113663584268</v>
       </c>
-      <c r="S147" s="37">
+      <c r="S147" s="138">
         <f t="shared" ref="S147:S161" si="31">R147-$S$141</f>
         <v>0.10950780330250931</v>
       </c>
-      <c r="U147" s="54">
+      <c r="U147" s="136">
         <v>10</v>
       </c>
-      <c r="V147" s="37">
+      <c r="V147" s="137">
         <f t="shared" ref="V147:V161" si="32">$W$143/($W$143+$C$135)+($C$135/($W$143+$C$135)*EXP(-($C$135+$W$143)*U147))</f>
         <v>0.92074829580971373</v>
       </c>
-      <c r="W147" s="37">
+      <c r="W147" s="138">
         <f t="shared" ref="W147:W161" si="33">V147-$W$141</f>
         <v>0.12709750215892013</v>
       </c>
-      <c r="Y147" s="54">
+      <c r="Y147" s="136">
         <v>10</v>
       </c>
-      <c r="Z147" s="37">
+      <c r="Z147" s="137">
         <f t="shared" ref="Z147:Z161" si="34">$AA$143/($AA$143+$C$135)+($C$135/($AA$143+$C$135)*EXP(-($C$135+$AA$143)*Y147))</f>
         <v>0.91884869407727143</v>
       </c>
-      <c r="AA147" s="37">
+      <c r="AA147" s="138">
         <f t="shared" ref="AA147:AA161" si="35">Z147-$AA$141</f>
         <v>0.14961792484650216</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A148" s="38">
+      <c r="A148" s="157">
         <v>1</v>
       </c>
-      <c r="B148" s="37">
+      <c r="B148" s="137">
         <f t="shared" si="22"/>
         <v>0.99370513841159924</v>
       </c>
-      <c r="C148" s="37">
+      <c r="C148" s="138">
         <f t="shared" si="23"/>
         <v>3.6061285106091523E-3</v>
       </c>
-      <c r="E148" s="54">
+      <c r="E148" s="136">
         <v>4</v>
       </c>
-      <c r="F148" s="37">
+      <c r="F148" s="137">
         <f t="shared" si="24"/>
         <v>0.97293859635376567</v>
       </c>
-      <c r="G148" s="37">
+      <c r="G148" s="138">
         <f t="shared" si="25"/>
         <v>2.0557643972813344E-2</v>
       </c>
-      <c r="I148" s="54">
+      <c r="I148" s="136">
         <v>6</v>
       </c>
-      <c r="J148" s="37">
+      <c r="J148" s="137">
         <f t="shared" si="26"/>
         <v>0.95607739404470005</v>
       </c>
-      <c r="K148" s="37">
+      <c r="K148" s="138">
         <f t="shared" si="27"/>
         <v>4.6986484953790986E-2</v>
       </c>
-      <c r="M148" s="54">
+      <c r="M148" s="136">
         <v>10</v>
       </c>
-      <c r="N148" s="37">
+      <c r="N148" s="137">
         <f t="shared" si="28"/>
         <v>0.9301598722209885</v>
       </c>
-      <c r="O148" s="37">
+      <c r="O148" s="138">
         <f t="shared" si="29"/>
         <v>6.059465482968418E-2</v>
       </c>
-      <c r="Q148" s="54">
+      <c r="Q148" s="136">
         <v>14</v>
       </c>
-      <c r="R148" s="37">
+      <c r="R148" s="137">
         <f t="shared" si="30"/>
         <v>0.90528508723817991</v>
       </c>
-      <c r="S148" s="37">
+      <c r="S148" s="138">
         <f t="shared" si="31"/>
         <v>7.1951753904846538E-2</v>
       </c>
-      <c r="U148" s="54">
+      <c r="U148" s="136">
         <v>20</v>
       </c>
-      <c r="V148" s="37">
+      <c r="V148" s="137">
         <f t="shared" si="32"/>
         <v>0.87193447276366387</v>
       </c>
-      <c r="W148" s="37">
+      <c r="W148" s="138">
         <f t="shared" si="33"/>
         <v>7.8283679112870264E-2</v>
       </c>
-      <c r="Y148" s="54">
+      <c r="Y148" s="136">
         <v>20</v>
       </c>
-      <c r="Z148" s="37">
+      <c r="Z148" s="137">
         <f t="shared" si="34"/>
         <v>0.86623470411738801</v>
       </c>
-      <c r="AA148" s="37">
+      <c r="AA148" s="138">
         <f t="shared" si="35"/>
         <v>9.7003934886618737E-2</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A149" s="38">
+      <c r="A149" s="157">
         <v>1.5</v>
       </c>
-      <c r="B149" s="37">
+      <c r="B149" s="137">
         <f t="shared" si="22"/>
         <v>0.99227532856284917</v>
       </c>
-      <c r="C149" s="37">
+      <c r="C149" s="138">
         <f t="shared" si="23"/>
         <v>2.176318661859078E-3</v>
       </c>
-      <c r="E149" s="54">
+      <c r="E149" s="136">
         <v>6</v>
       </c>
-      <c r="F149" s="37">
+      <c r="F149" s="137">
         <f t="shared" si="24"/>
         <v>0.96588828697617946</v>
       </c>
-      <c r="G149" s="37">
+      <c r="G149" s="138">
         <f t="shared" si="25"/>
         <v>1.3507334595227127E-2</v>
       </c>
-      <c r="I149" s="54">
+      <c r="I149" s="136">
         <v>9</v>
       </c>
-      <c r="J149" s="37">
+      <c r="J149" s="137">
         <f t="shared" si="26"/>
         <v>0.94287060827473146</v>
       </c>
-      <c r="K149" s="37">
+      <c r="K149" s="138">
         <f t="shared" si="27"/>
         <v>3.3779699183822398E-2</v>
       </c>
-      <c r="M149" s="54">
+      <c r="M149" s="136">
         <v>15</v>
       </c>
-      <c r="N149" s="37">
+      <c r="N149" s="137">
         <f t="shared" si="28"/>
         <v>0.91086566557118098</v>
       </c>
-      <c r="O149" s="37">
+      <c r="O149" s="138">
         <f t="shared" si="29"/>
         <v>4.1300448179876659E-2</v>
       </c>
-      <c r="Q149" s="54">
+      <c r="Q149" s="136">
         <v>21</v>
       </c>
-      <c r="R149" s="37">
+      <c r="R149" s="137">
         <f t="shared" si="30"/>
         <v>0.88060900441662837</v>
       </c>
-      <c r="S149" s="37">
+      <c r="S149" s="138">
         <f t="shared" si="31"/>
         <v>4.7275671083295001E-2</v>
       </c>
-      <c r="U149" s="54">
+      <c r="U149" s="136">
         <v>30</v>
       </c>
-      <c r="V149" s="37">
+      <c r="V149" s="137">
         <f t="shared" si="32"/>
         <v>0.84186837709145079</v>
       </c>
-      <c r="W149" s="37">
+      <c r="W149" s="138">
         <f t="shared" si="33"/>
         <v>4.8217583440657186E-2</v>
       </c>
-      <c r="Y149" s="54">
+      <c r="Y149" s="136">
         <v>30</v>
       </c>
-      <c r="Z149" s="37">
+      <c r="Z149" s="137">
         <f t="shared" si="34"/>
         <v>0.83212272146938748</v>
       </c>
-      <c r="AA149" s="37">
+      <c r="AA149" s="138">
         <f t="shared" si="35"/>
         <v>6.2891952238618209E-2</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A150" s="38">
+      <c r="A150" s="157">
         <v>2</v>
       </c>
-      <c r="B150" s="37">
+      <c r="B150" s="137">
         <f t="shared" si="22"/>
         <v>0.99141243034732796</v>
       </c>
-      <c r="C150" s="37">
+      <c r="C150" s="138">
         <f t="shared" si="23"/>
         <v>1.3134204463378651E-3</v>
       </c>
-      <c r="E150" s="54">
+      <c r="E150" s="136">
         <v>8</v>
       </c>
-      <c r="F150" s="37">
+      <c r="F150" s="137">
         <f t="shared" si="24"/>
         <v>0.96125590362092428</v>
       </c>
-      <c r="G150" s="37">
+      <c r="G150" s="138">
         <f t="shared" si="25"/>
         <v>8.874951239971951E-3</v>
       </c>
-      <c r="I150" s="54">
+      <c r="I150" s="136">
         <v>12</v>
       </c>
-      <c r="J150" s="37">
+      <c r="J150" s="137">
         <f t="shared" si="26"/>
         <v>0.93337593654235007</v>
       </c>
-      <c r="K150" s="37">
+      <c r="K150" s="138">
         <f t="shared" si="27"/>
         <v>2.428502745144101E-2</v>
       </c>
-      <c r="M150" s="54">
+      <c r="M150" s="136">
         <v>20</v>
       </c>
-      <c r="N150" s="37">
+      <c r="N150" s="137">
         <f t="shared" si="28"/>
         <v>0.89771501087809003</v>
       </c>
-      <c r="O150" s="37">
+      <c r="O150" s="138">
         <f t="shared" si="29"/>
         <v>2.8149793486785701E-2</v>
       </c>
-      <c r="Q150" s="54">
+      <c r="Q150" s="136">
         <v>28</v>
       </c>
-      <c r="R150" s="37">
+      <c r="R150" s="137">
         <f t="shared" si="30"/>
         <v>0.86439566267323487</v>
       </c>
-      <c r="S150" s="37">
+      <c r="S150" s="138">
         <f t="shared" si="31"/>
         <v>3.1062329339901495E-2</v>
       </c>
-      <c r="U150" s="54">
+      <c r="U150" s="136">
         <v>40</v>
       </c>
-      <c r="V150" s="37">
+      <c r="V150" s="137">
         <f t="shared" si="32"/>
         <v>0.82334964504872832</v>
       </c>
-      <c r="W150" s="37">
+      <c r="W150" s="138">
         <f t="shared" si="33"/>
         <v>2.9698851397934711E-2</v>
       </c>
-      <c r="Y150" s="54">
+      <c r="Y150" s="136">
         <v>40</v>
       </c>
-      <c r="Z150" s="37">
+      <c r="Z150" s="137">
         <f t="shared" si="34"/>
         <v>0.81000641055921452</v>
       </c>
-      <c r="AA150" s="37">
+      <c r="AA150" s="138">
         <f t="shared" si="35"/>
         <v>4.0775641328445245E-2</v>
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A151" s="63">
+      <c r="A151" s="139">
         <v>2.5</v>
       </c>
-      <c r="B151" s="59">
+      <c r="B151" s="140">
         <f t="shared" si="22"/>
         <v>0.9908916664632349</v>
       </c>
-      <c r="C151" s="59">
+      <c r="C151" s="141">
         <f t="shared" si="23"/>
         <v>7.9265656224480896E-4</v>
       </c>
-      <c r="E151" s="54">
+      <c r="E151" s="136">
         <v>10</v>
       </c>
-      <c r="F151" s="37">
+      <c r="F151" s="137">
         <f t="shared" si="24"/>
         <v>0.95821221086918951</v>
       </c>
-      <c r="G151" s="37">
+      <c r="G151" s="138">
         <f t="shared" si="25"/>
         <v>5.8312584882371787E-3</v>
       </c>
-      <c r="I151" s="54">
+      <c r="I151" s="136">
         <v>15</v>
       </c>
-      <c r="J151" s="37">
+      <c r="J151" s="137">
         <f t="shared" si="26"/>
         <v>0.92654999169279595</v>
       </c>
-      <c r="K151" s="37">
+      <c r="K151" s="138">
         <f t="shared" si="27"/>
         <v>1.7459082601886888E-2</v>
       </c>
-      <c r="M151" s="54">
+      <c r="M151" s="136">
         <v>25</v>
       </c>
-      <c r="N151" s="37">
+      <c r="N151" s="137">
         <f t="shared" si="28"/>
         <v>0.88875171313821444</v>
       </c>
-      <c r="O151" s="37">
+      <c r="O151" s="138">
         <f t="shared" si="29"/>
         <v>1.9186495746910115E-2</v>
       </c>
-      <c r="Q151" s="54">
+      <c r="Q151" s="136">
         <v>35</v>
       </c>
-      <c r="R151" s="37">
+      <c r="R151" s="137">
         <f t="shared" si="30"/>
         <v>0.85374273804216361</v>
       </c>
-      <c r="S151" s="37">
+      <c r="S151" s="138">
         <f t="shared" si="31"/>
         <v>2.0409404708830237E-2</v>
       </c>
-      <c r="U151" s="54">
+      <c r="U151" s="136">
         <v>50</v>
       </c>
-      <c r="V151" s="37">
+      <c r="V151" s="137">
         <f t="shared" si="32"/>
         <v>0.81194332744071562</v>
       </c>
-      <c r="W151" s="37">
+      <c r="W151" s="138">
         <f t="shared" si="33"/>
         <v>1.8292533789922016E-2</v>
       </c>
-      <c r="Y151" s="54">
+      <c r="Y151" s="136">
         <v>50</v>
       </c>
-      <c r="Z151" s="37">
+      <c r="Z151" s="137">
         <f t="shared" si="34"/>
         <v>0.79566742553677405</v>
       </c>
-      <c r="AA151" s="37">
+      <c r="AA151" s="138">
         <f t="shared" si="35"/>
         <v>2.643665630600478E-2</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A152" s="38">
+      <c r="A152" s="157">
         <v>3</v>
       </c>
-      <c r="B152" s="37">
+      <c r="B152" s="137">
         <f t="shared" si="22"/>
         <v>0.9905773825557036</v>
       </c>
-      <c r="C152" s="37">
+      <c r="C152" s="138">
         <f t="shared" si="23"/>
         <v>4.7837265471351031E-4</v>
       </c>
-      <c r="E152" s="54">
+      <c r="E152" s="136">
         <v>12</v>
       </c>
-      <c r="F152" s="37">
+      <c r="F152" s="137">
         <f t="shared" si="24"/>
         <v>0.95621236222616812</v>
       </c>
-      <c r="G152" s="37">
+      <c r="G152" s="138">
         <f t="shared" si="25"/>
         <v>3.8314098452157941E-3</v>
       </c>
-      <c r="I152" s="54">
+      <c r="I152" s="136">
         <v>18</v>
       </c>
-      <c r="J152" s="37">
+      <c r="J152" s="137">
         <f t="shared" si="26"/>
         <v>0.921642657937354</v>
       </c>
-      <c r="K152" s="37">
+      <c r="K152" s="138">
         <f t="shared" si="27"/>
         <v>1.2551748846444943E-2</v>
       </c>
-      <c r="M152" s="54">
+      <c r="M152" s="136">
         <v>30</v>
       </c>
-      <c r="N152" s="37">
+      <c r="N152" s="137">
         <f t="shared" si="28"/>
         <v>0.88264245787688755</v>
       </c>
-      <c r="O152" s="37">
+      <c r="O152" s="138">
         <f t="shared" si="29"/>
         <v>1.307724048558323E-2</v>
       </c>
-      <c r="Q152" s="54">
+      <c r="Q152" s="136">
         <v>42</v>
       </c>
-      <c r="R152" s="37">
+      <c r="R152" s="137">
         <f t="shared" si="30"/>
         <v>0.84674326779158871</v>
       </c>
-      <c r="S152" s="37">
+      <c r="S152" s="138">
         <f t="shared" si="31"/>
         <v>1.3409934458255335E-2</v>
       </c>
-      <c r="U152" s="54">
+      <c r="U152" s="136">
         <v>60</v>
       </c>
-      <c r="V152" s="37">
+      <c r="V152" s="137">
         <f t="shared" si="32"/>
         <v>0.80491778805309933</v>
       </c>
-      <c r="W152" s="37">
+      <c r="W152" s="138">
         <f t="shared" si="33"/>
         <v>1.1266994402305719E-2</v>
       </c>
-      <c r="Y152" s="54">
+      <c r="Y152" s="136">
         <v>60</v>
       </c>
-      <c r="Z152" s="37">
+      <c r="Z152" s="137">
         <f t="shared" si="34"/>
         <v>0.78637082574176931</v>
       </c>
-      <c r="AA152" s="37">
+      <c r="AA152" s="138">
         <f t="shared" si="35"/>
         <v>1.7140056511000035E-2</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A153" s="38">
+      <c r="A153" s="157">
         <v>3.5</v>
       </c>
-      <c r="B153" s="37">
+      <c r="B153" s="137">
         <f t="shared" si="22"/>
         <v>0.99038771046524154</v>
       </c>
-      <c r="C153" s="37">
+      <c r="C153" s="138">
         <f t="shared" si="23"/>
         <v>2.8870056425145396E-4</v>
       </c>
-      <c r="E153" s="54">
+      <c r="E153" s="136">
         <v>14</v>
       </c>
-      <c r="F153" s="37">
+      <c r="F153" s="137">
         <f t="shared" si="24"/>
         <v>0.95489836803515948</v>
       </c>
-      <c r="G153" s="37">
+      <c r="G153" s="138">
         <f t="shared" si="25"/>
         <v>2.5174156542071557E-3</v>
       </c>
-      <c r="I153" s="54">
+      <c r="I153" s="136">
         <v>21</v>
       </c>
-      <c r="J153" s="37">
+      <c r="J153" s="137">
         <f t="shared" si="26"/>
         <v>0.9181146592326952</v>
       </c>
-      <c r="K153" s="37">
+      <c r="K153" s="138">
         <f t="shared" si="27"/>
         <v>9.0237501417861354E-3</v>
       </c>
-      <c r="M153" s="54">
+      <c r="M153" s="136">
         <v>35</v>
       </c>
-      <c r="N153" s="37">
+      <c r="N153" s="137">
         <f t="shared" si="28"/>
         <v>0.87847847705964777</v>
       </c>
-      <c r="O153" s="37">
+      <c r="O153" s="138">
         <f t="shared" si="29"/>
         <v>8.9132596683434429E-3</v>
       </c>
-      <c r="Q153" s="54">
+      <c r="Q153" s="136">
         <v>49</v>
       </c>
-      <c r="R153" s="37">
+      <c r="R153" s="137">
         <f t="shared" si="30"/>
         <v>0.8421442881230583</v>
       </c>
-      <c r="S153" s="37">
+      <c r="S153" s="138">
         <f t="shared" si="31"/>
         <v>8.8109547897249341E-3</v>
       </c>
-      <c r="U153" s="54">
+      <c r="U153" s="136">
         <v>70</v>
       </c>
-      <c r="V153" s="37">
+      <c r="V153" s="137">
         <f t="shared" si="32"/>
         <v>0.8005905191322098</v>
       </c>
-      <c r="W153" s="37">
+      <c r="W153" s="138">
         <f t="shared" si="33"/>
         <v>6.9397254814161924E-3</v>
       </c>
-      <c r="Y153" s="54">
+      <c r="Y153" s="136">
         <v>70</v>
       </c>
-      <c r="Z153" s="37">
+      <c r="Z153" s="137">
         <f t="shared" si="34"/>
         <v>0.78034342787412214</v>
       </c>
-      <c r="AA153" s="37">
+      <c r="AA153" s="138">
         <f t="shared" si="35"/>
         <v>1.1112658643352868E-2</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A154" s="38">
+      <c r="A154" s="157">
         <v>4</v>
       </c>
-      <c r="B154" s="37">
+      <c r="B154" s="137">
         <f t="shared" si="22"/>
         <v>0.99027324230114477</v>
       </c>
-      <c r="C154" s="37">
+      <c r="C154" s="138">
         <f t="shared" si="23"/>
         <v>1.7423240015468355E-4</v>
       </c>
-      <c r="E154" s="54">
+      <c r="E154" s="136">
         <v>16</v>
       </c>
-      <c r="F154" s="37">
+      <c r="F154" s="137">
         <f t="shared" si="24"/>
         <v>0.95403501233070176</v>
       </c>
-      <c r="G154" s="37">
+      <c r="G154" s="138">
         <f t="shared" si="25"/>
         <v>1.6540599497494313E-3</v>
       </c>
-      <c r="I154" s="54">
+      <c r="I154" s="136">
         <v>24</v>
       </c>
-      <c r="J154" s="37">
+      <c r="J154" s="137">
         <f t="shared" si="26"/>
         <v>0.91557829723239881</v>
       </c>
-      <c r="K154" s="37">
+      <c r="K154" s="138">
         <f t="shared" si="27"/>
         <v>6.4873881414897472E-3</v>
       </c>
-      <c r="M154" s="54">
+      <c r="M154" s="136">
         <v>40</v>
       </c>
-      <c r="N154" s="37">
+      <c r="N154" s="137">
         <f t="shared" si="28"/>
         <v>0.87564036742031093</v>
       </c>
-      <c r="O154" s="37">
+      <c r="O154" s="138">
         <f t="shared" si="29"/>
         <v>6.0751500290066041E-3</v>
       </c>
-      <c r="Q154" s="54">
+      <c r="Q154" s="136">
         <v>56</v>
       </c>
-      <c r="R154" s="37">
+      <c r="R154" s="137">
         <f t="shared" si="30"/>
         <v>0.83912254315745638</v>
       </c>
-      <c r="S154" s="37">
+      <c r="S154" s="138">
         <f t="shared" si="31"/>
         <v>5.7892098241230094E-3</v>
       </c>
-      <c r="U154" s="54">
+      <c r="U154" s="136">
         <v>80</v>
       </c>
-      <c r="V154" s="37">
+      <c r="V154" s="137">
         <f t="shared" si="32"/>
         <v>0.79792520686498336</v>
       </c>
-      <c r="W154" s="37">
+      <c r="W154" s="138">
         <f t="shared" si="33"/>
         <v>4.274413214189754E-3</v>
       </c>
-      <c r="Y154" s="54">
+      <c r="Y154" s="136">
         <v>80</v>
       </c>
-      <c r="Z154" s="37">
+      <c r="Z154" s="137">
         <f t="shared" si="34"/>
         <v>0.77643559857566857</v>
       </c>
-      <c r="AA154" s="37">
+      <c r="AA154" s="138">
         <f t="shared" si="35"/>
         <v>7.2048293448992995E-3</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A155" s="38">
+      <c r="A155" s="157">
         <v>4.5</v>
       </c>
-      <c r="B155" s="37">
+      <c r="B155" s="137">
         <f t="shared" si="22"/>
         <v>0.99020416012590351</v>
       </c>
-      <c r="C155" s="37">
+      <c r="C155" s="138">
         <f t="shared" si="23"/>
         <v>1.0515022491341952E-4</v>
       </c>
-      <c r="E155" s="54">
+      <c r="E155" s="136">
         <v>18</v>
       </c>
-      <c r="F155" s="37">
+      <c r="F155" s="137">
         <f t="shared" si="24"/>
         <v>0.9534677472107187</v>
       </c>
-      <c r="G155" s="37">
+      <c r="G155" s="138">
         <f t="shared" si="25"/>
         <v>1.0867948297663688E-3</v>
       </c>
-      <c r="I155" s="54">
+      <c r="I155" s="136">
         <v>27</v>
       </c>
-      <c r="J155" s="37">
+      <c r="J155" s="137">
         <f t="shared" si="26"/>
         <v>0.91375484639381088</v>
       </c>
-      <c r="K155" s="37">
+      <c r="K155" s="138">
         <f t="shared" si="27"/>
         <v>4.6639373029018216E-3</v>
       </c>
-      <c r="M155" s="54">
+      <c r="M155" s="136">
         <v>45</v>
       </c>
-      <c r="N155" s="37">
+      <c r="N155" s="137">
         <f t="shared" si="28"/>
         <v>0.87370595257105244</v>
       </c>
-      <c r="O155" s="37">
+      <c r="O155" s="138">
         <f t="shared" si="29"/>
         <v>4.1407351797481118E-3</v>
       </c>
-      <c r="Q155" s="54">
+      <c r="Q155" s="136">
         <v>63</v>
       </c>
-      <c r="R155" s="37">
+      <c r="R155" s="137">
         <f t="shared" si="30"/>
         <v>0.83713711523751544</v>
       </c>
-      <c r="S155" s="37">
+      <c r="S155" s="138">
         <f t="shared" si="31"/>
         <v>3.8037819041820686E-3</v>
       </c>
-      <c r="U155" s="54">
+      <c r="U155" s="136">
         <v>90</v>
       </c>
-      <c r="V155" s="37">
+      <c r="V155" s="137">
         <f t="shared" si="32"/>
         <v>0.79628355028858366</v>
       </c>
-      <c r="W155" s="37">
+      <c r="W155" s="138">
         <f t="shared" si="33"/>
         <v>2.6327566377900569E-3</v>
       </c>
-      <c r="Y155" s="54">
+      <c r="Y155" s="136">
         <v>90</v>
       </c>
-      <c r="Z155" s="37">
+      <c r="Z155" s="137">
         <f t="shared" si="34"/>
         <v>0.77390197956441631</v>
       </c>
-      <c r="AA155" s="37">
+      <c r="AA155" s="138">
         <f t="shared" si="35"/>
         <v>4.6712103336470356E-3</v>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A156" s="38">
+      <c r="A156" s="157">
         <v>5</v>
       </c>
-      <c r="B156" s="37">
+      <c r="B156" s="137">
         <f t="shared" si="22"/>
         <v>0.99016246864798274</v>
       </c>
-      <c r="C156" s="37">
+      <c r="C156" s="138">
         <f t="shared" si="23"/>
         <v>6.3458746992650639E-5</v>
       </c>
-      <c r="E156" s="58">
+      <c r="E156" s="147">
         <v>20</v>
       </c>
-      <c r="F156" s="59">
+      <c r="F156" s="140">
         <f t="shared" si="24"/>
         <v>0.95309502746764174</v>
       </c>
-      <c r="G156" s="59">
+      <c r="G156" s="141">
         <f t="shared" si="25"/>
         <v>7.1407508668941411E-4</v>
       </c>
-      <c r="I156" s="54">
+      <c r="I156" s="136">
         <v>30</v>
       </c>
-      <c r="J156" s="37">
+      <c r="J156" s="137">
         <f t="shared" si="26"/>
         <v>0.91244392430920374</v>
       </c>
-      <c r="K156" s="37">
+      <c r="K156" s="138">
         <f t="shared" si="27"/>
         <v>3.3530152182946749E-3</v>
       </c>
-      <c r="M156" s="54">
+      <c r="M156" s="136">
         <v>50</v>
       </c>
-      <c r="N156" s="37">
+      <c r="N156" s="137">
         <f t="shared" si="28"/>
         <v>0.87238748313732528</v>
       </c>
-      <c r="O156" s="37">
+      <c r="O156" s="138">
         <f t="shared" si="29"/>
         <v>2.8222657460209577E-3</v>
       </c>
-      <c r="Q156" s="54">
+      <c r="Q156" s="136">
         <v>70</v>
       </c>
-      <c r="R156" s="37">
+      <c r="R156" s="137">
         <f t="shared" si="30"/>
         <v>0.83583259613674621</v>
       </c>
-      <c r="S156" s="37">
+      <c r="S156" s="138">
         <f t="shared" si="31"/>
         <v>2.4992628034128384E-3</v>
       </c>
-      <c r="U156" s="54">
+      <c r="U156" s="136">
         <v>100</v>
       </c>
-      <c r="V156" s="37">
+      <c r="V156" s="137">
         <f t="shared" si="32"/>
         <v>0.79527239810653916</v>
       </c>
-      <c r="W156" s="37">
+      <c r="W156" s="138">
         <f t="shared" si="33"/>
         <v>1.6216044557455511E-3</v>
       </c>
-      <c r="Y156" s="54">
+      <c r="Y156" s="136">
         <v>100</v>
       </c>
-      <c r="Z156" s="37">
+      <c r="Z156" s="137">
         <f t="shared" si="34"/>
         <v>0.77225932201621705</v>
       </c>
-      <c r="AA156" s="37">
+      <c r="AA156" s="138">
         <f t="shared" si="35"/>
         <v>3.0285527854477801E-3</v>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A157" s="38">
+      <c r="A157" s="157">
         <v>5.5</v>
       </c>
-      <c r="B157" s="37">
+      <c r="B157" s="137">
         <f t="shared" si="22"/>
         <v>0.99013730760860974</v>
       </c>
-      <c r="C157" s="37">
+      <c r="C157" s="138">
         <f t="shared" si="23"/>
         <v>3.8297707619650012E-5</v>
       </c>
-      <c r="E157" s="54">
+      <c r="E157" s="136">
         <v>22</v>
       </c>
-      <c r="F157" s="37">
+      <c r="F157" s="137">
         <f t="shared" si="24"/>
         <v>0.95285013314577072</v>
       </c>
-      <c r="G157" s="37">
+      <c r="G157" s="138">
         <f t="shared" si="25"/>
         <v>4.6918076481838877E-4</v>
       </c>
-      <c r="I157" s="54">
+      <c r="I157" s="136">
         <v>33</v>
       </c>
-      <c r="J157" s="37">
+      <c r="J157" s="137">
         <f t="shared" si="26"/>
         <v>0.91150147130989956</v>
       </c>
-      <c r="K157" s="37">
+      <c r="K157" s="138">
         <f t="shared" si="27"/>
         <v>2.4105622189904974E-3</v>
       </c>
-      <c r="M157" s="54">
+      <c r="M157" s="136">
         <v>55</v>
       </c>
-      <c r="N157" s="37">
+      <c r="N157" s="137">
         <f t="shared" si="28"/>
         <v>0.87148883326998217</v>
       </c>
-      <c r="O157" s="37">
+      <c r="O157" s="138">
         <f t="shared" si="29"/>
         <v>1.9236158786778423E-3</v>
       </c>
-      <c r="Q157" s="54">
+      <c r="Q157" s="136">
         <v>77</v>
       </c>
-      <c r="R157" s="37">
+      <c r="R157" s="137">
         <f t="shared" si="30"/>
         <v>0.83497546601019779</v>
       </c>
-      <c r="S157" s="37">
+      <c r="S157" s="138">
         <f t="shared" si="31"/>
         <v>1.6421326768644162E-3</v>
       </c>
-      <c r="U157" s="58">
+      <c r="U157" s="147">
         <v>110</v>
       </c>
-      <c r="V157" s="59">
+      <c r="V157" s="140">
         <f t="shared" si="32"/>
         <v>0.79464959504897414</v>
       </c>
-      <c r="W157" s="59">
+      <c r="W157" s="141">
         <f t="shared" si="33"/>
         <v>9.988013981805377E-4</v>
       </c>
-      <c r="Y157" s="54">
+      <c r="Y157" s="136">
         <v>110</v>
       </c>
-      <c r="Z157" s="37">
+      <c r="Z157" s="137">
         <f t="shared" si="34"/>
         <v>0.77119431429063867</v>
       </c>
-      <c r="AA157" s="37">
+      <c r="AA157" s="138">
         <f t="shared" si="35"/>
         <v>1.9635450598693982E-3</v>
       </c>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A158" s="38">
+      <c r="A158" s="157">
         <v>6</v>
       </c>
-      <c r="B158" s="37">
+      <c r="B158" s="137">
         <f t="shared" si="22"/>
         <v>0.9901221227810646</v>
       </c>
-      <c r="C158" s="37">
+      <c r="C158" s="138">
         <f t="shared" si="23"/>
         <v>2.3112880074505071E-5</v>
       </c>
-      <c r="E158" s="54">
+      <c r="E158" s="136">
         <v>24</v>
       </c>
-      <c r="F158" s="37">
+      <c r="F158" s="137">
         <f t="shared" si="24"/>
         <v>0.95268922611039464</v>
       </c>
-      <c r="G158" s="37">
+      <c r="G158" s="138">
         <f t="shared" si="25"/>
         <v>3.0827372944230991E-4</v>
       </c>
-      <c r="I158" s="54">
+      <c r="I158" s="136">
         <v>36</v>
       </c>
-      <c r="J158" s="37">
+      <c r="J158" s="137">
         <f t="shared" si="26"/>
         <v>0.91082391948105568</v>
       </c>
-      <c r="K158" s="37">
+      <c r="K158" s="138">
         <f t="shared" si="27"/>
         <v>1.7330103901466165E-3</v>
       </c>
-      <c r="M158" s="54">
+      <c r="M158" s="136">
         <v>60</v>
       </c>
-      <c r="N158" s="37">
+      <c r="N158" s="137">
         <f t="shared" si="28"/>
         <v>0.87087632640147405</v>
       </c>
-      <c r="O158" s="37">
+      <c r="O158" s="138">
         <f t="shared" si="29"/>
         <v>1.3111090101697309E-3</v>
       </c>
-      <c r="Q158" s="54">
+      <c r="Q158" s="136">
         <v>84</v>
       </c>
-      <c r="R158" s="37">
+      <c r="R158" s="137">
         <f t="shared" si="30"/>
         <v>0.83441229138638151</v>
       </c>
-      <c r="S158" s="37">
+      <c r="S158" s="138">
         <f t="shared" si="31"/>
         <v>1.0789580530481402E-3</v>
       </c>
-      <c r="U158" s="54">
+      <c r="U158" s="136">
         <v>120</v>
       </c>
-      <c r="V158" s="37">
+      <c r="V158" s="137">
         <f t="shared" si="32"/>
         <v>0.79426598944004589</v>
       </c>
-      <c r="W158" s="37">
+      <c r="W158" s="138">
         <f t="shared" si="33"/>
         <v>6.1519578925228746E-4</v>
       </c>
-      <c r="Y158" s="54">
+      <c r="Y158" s="136">
         <v>120</v>
       </c>
-      <c r="Z158" s="37">
+      <c r="Z158" s="137">
         <f t="shared" si="34"/>
         <v>0.77050382255863703</v>
       </c>
-      <c r="AA158" s="37">
+      <c r="AA158" s="138">
         <f t="shared" si="35"/>
         <v>1.2730533278677569E-3</v>
       </c>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A159" s="38">
+      <c r="A159" s="157">
         <v>6.5</v>
       </c>
-      <c r="B159" s="37">
+      <c r="B159" s="137">
         <f t="shared" si="22"/>
         <v>0.99011295865297921</v>
       </c>
-      <c r="C159" s="37">
+      <c r="C159" s="138">
         <f t="shared" si="23"/>
         <v>1.3948751989123487E-5</v>
       </c>
-      <c r="E159" s="54">
+      <c r="E159" s="136">
         <v>26</v>
       </c>
-      <c r="F159" s="37">
+      <c r="F159" s="137">
         <f t="shared" si="24"/>
         <v>0.95258350265451497</v>
       </c>
-      <c r="G159" s="37">
+      <c r="G159" s="138">
         <f t="shared" si="25"/>
         <v>2.0255027356264055E-4</v>
       </c>
-      <c r="I159" s="54">
+      <c r="I159" s="136">
         <v>39</v>
       </c>
-      <c r="J159" s="37">
+      <c r="J159" s="137">
         <f t="shared" si="26"/>
         <v>0.91033681139066958</v>
       </c>
-      <c r="K159" s="37">
+      <c r="K159" s="138">
         <f t="shared" si="27"/>
         <v>1.2459022997605151E-3</v>
       </c>
-      <c r="M159" s="58">
+      <c r="M159" s="147">
         <v>65</v>
       </c>
-      <c r="N159" s="59">
+      <c r="N159" s="140">
         <f t="shared" si="28"/>
         <v>0.8704588504994536</v>
       </c>
-      <c r="O159" s="59">
+      <c r="O159" s="141">
         <f t="shared" si="29"/>
         <v>8.936331081492721E-4</v>
       </c>
-      <c r="Q159" s="58">
+      <c r="Q159" s="147">
         <v>91</v>
       </c>
-      <c r="R159" s="59">
+      <c r="R159" s="140">
         <f t="shared" si="30"/>
         <v>0.83404225929080245</v>
       </c>
-      <c r="S159" s="59">
+      <c r="S159" s="141">
         <f t="shared" si="31"/>
         <v>7.0892595746907539E-4</v>
       </c>
-      <c r="U159" s="54">
+      <c r="U159" s="136">
         <v>130</v>
       </c>
-      <c r="V159" s="37">
+      <c r="V159" s="137">
         <f t="shared" si="32"/>
         <v>0.79402971368414876</v>
       </c>
-      <c r="W159" s="37">
+      <c r="W159" s="138">
         <f t="shared" si="33"/>
         <v>3.7892003335515678E-4</v>
       </c>
-      <c r="Y159" s="58">
+      <c r="Y159" s="147">
         <v>130</v>
       </c>
-      <c r="Z159" s="59">
+      <c r="Z159" s="140">
         <f t="shared" si="34"/>
         <v>0.77005614615168538</v>
       </c>
-      <c r="AA159" s="59">
+      <c r="AA159" s="141">
         <f t="shared" si="35"/>
         <v>8.2537692091610992E-4</v>
       </c>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A160" s="38">
+      <c r="A160" s="157">
         <v>7</v>
       </c>
-      <c r="B160" s="37">
+      <c r="B160" s="137">
         <f t="shared" si="22"/>
         <v>0.99010742805058582</v>
       </c>
-      <c r="C160" s="37">
+      <c r="C160" s="138">
         <f t="shared" si="23"/>
         <v>8.4181495957347252E-6</v>
       </c>
-      <c r="E160" s="54">
+      <c r="E160" s="136">
         <v>28</v>
       </c>
-      <c r="F160" s="37">
+      <c r="F160" s="137">
         <f t="shared" si="24"/>
         <v>0.95251403739404927</v>
       </c>
-      <c r="G160" s="37">
+      <c r="G160" s="138">
         <f t="shared" si="25"/>
         <v>1.330850130969452E-4</v>
       </c>
-      <c r="I160" s="58">
+      <c r="I160" s="147">
         <v>42</v>
       </c>
-      <c r="J160" s="59">
+      <c r="J160" s="140">
         <f t="shared" si="26"/>
         <v>0.90998661782374435</v>
       </c>
-      <c r="K160" s="59">
+      <c r="K160" s="141">
         <f t="shared" si="27"/>
         <v>8.9570873283528751E-4</v>
       </c>
-      <c r="M160" s="54">
+      <c r="M160" s="136">
         <v>70</v>
       </c>
-      <c r="N160" s="37">
+      <c r="N160" s="137">
         <f t="shared" si="28"/>
         <v>0.87017430490865522</v>
       </c>
-      <c r="O160" s="37">
+      <c r="O160" s="138">
         <f t="shared" si="29"/>
         <v>6.090875173508925E-4</v>
       </c>
-      <c r="Q160" s="54">
+      <c r="Q160" s="136">
         <v>98</v>
       </c>
-      <c r="R160" s="37">
+      <c r="R160" s="137">
         <f t="shared" si="30"/>
         <v>0.83379913087917268</v>
       </c>
-      <c r="S160" s="37">
+      <c r="S160" s="138">
         <f t="shared" si="31"/>
         <v>4.6579754583930821E-4</v>
       </c>
-      <c r="U160" s="54">
+      <c r="U160" s="136">
         <v>140</v>
       </c>
-      <c r="V160" s="37">
+      <c r="V160" s="137">
         <f t="shared" si="32"/>
         <v>0.79388418340115652</v>
       </c>
-      <c r="W160" s="37">
+      <c r="W160" s="138">
         <f t="shared" si="33"/>
         <v>2.3338975036291121E-4</v>
       </c>
-      <c r="Y160" s="54">
+      <c r="Y160" s="136">
         <v>140</v>
       </c>
-      <c r="Z160" s="37">
+      <c r="Z160" s="137">
         <f t="shared" si="34"/>
         <v>0.7697658976866385</v>
       </c>
-      <c r="AA160" s="37">
+      <c r="AA160" s="138">
         <f t="shared" si="35"/>
         <v>5.3512845586922708E-4</v>
       </c>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A161" s="38">
+      <c r="A161" s="158">
         <v>7.5</v>
       </c>
-      <c r="B161" s="37">
+      <c r="B161" s="143">
         <f t="shared" si="22"/>
         <v>0.99010409030120583</v>
       </c>
-      <c r="C161" s="37">
+      <c r="C161" s="144">
         <f t="shared" si="23"/>
         <v>5.0804002157400774E-6</v>
       </c>
-      <c r="E161" s="54">
+      <c r="E161" s="142">
         <v>30</v>
       </c>
-      <c r="F161" s="37">
+      <c r="F161" s="143">
         <f t="shared" si="24"/>
         <v>0.95246839546557271</v>
       </c>
-      <c r="G161" s="37">
+      <c r="G161" s="144">
         <f t="shared" si="25"/>
         <v>8.7443084620386635E-5</v>
       </c>
-      <c r="I161" s="54">
+      <c r="I161" s="142">
         <v>45</v>
       </c>
-      <c r="J161" s="37">
+      <c r="J161" s="143">
         <f t="shared" si="26"/>
         <v>0.90973485535718668</v>
       </c>
-      <c r="K161" s="37">
+      <c r="K161" s="144">
         <f t="shared" si="27"/>
         <v>6.4394626627761742E-4</v>
       </c>
-      <c r="M161" s="54">
+      <c r="M161" s="142">
         <v>75</v>
       </c>
-      <c r="N161" s="37">
+      <c r="N161" s="143">
         <f t="shared" si="28"/>
         <v>0.86998036271258827</v>
       </c>
-      <c r="O161" s="37">
+      <c r="O161" s="144">
         <f t="shared" si="29"/>
         <v>4.1514532128394954E-4</v>
       </c>
-      <c r="Q161" s="54">
+      <c r="Q161" s="142">
         <v>105</v>
       </c>
-      <c r="R161" s="37">
+      <c r="R161" s="143">
         <f t="shared" si="30"/>
         <v>0.83363938412950478</v>
       </c>
-      <c r="S161" s="37">
+      <c r="S161" s="144">
         <f t="shared" si="31"/>
         <v>3.0605079617140873E-4</v>
       </c>
-      <c r="U161" s="54">
+      <c r="U161" s="142">
         <v>150</v>
       </c>
-      <c r="V161" s="37">
+      <c r="V161" s="143">
         <f t="shared" si="32"/>
         <v>0.79379454634471192</v>
       </c>
-      <c r="W161" s="37">
+      <c r="W161" s="144">
         <f t="shared" si="33"/>
         <v>1.4375269391830869E-4</v>
       </c>
-      <c r="Y161" s="54">
+      <c r="Y161" s="142">
         <v>150</v>
       </c>
-      <c r="Z161" s="37">
+      <c r="Z161" s="143">
         <f t="shared" si="34"/>
         <v>0.76957771673684094</v>
       </c>
-      <c r="AA161" s="37">
+      <c r="AA161" s="144">
         <f t="shared" si="35"/>
         <v>3.4694750607167091E-4</v>
       </c>
@@ -20046,11 +20292,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="I101:K101"/>
     <mergeCell ref="M101:O101"/>
     <mergeCell ref="Q101:S101"/>
     <mergeCell ref="U101:W101"/>
@@ -20062,6 +20303,11 @@
     <mergeCell ref="Q139:S139"/>
     <mergeCell ref="U139:W139"/>
     <mergeCell ref="Y139:AA139"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="I101:K101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20073,8 +20319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20083,52 +20329,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="E1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100">
+      <c r="A2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92">
         <v>1</v>
       </c>
-      <c r="C2" s="100">
+      <c r="C2" s="92">
         <v>2</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="92">
         <v>3</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="92">
         <v>4</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="92">
         <v>5</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="92">
         <v>6</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="92">
         <v>7</v>
       </c>
-      <c r="I2" s="100">
+      <c r="I2" s="92">
         <v>8</v>
       </c>
-      <c r="J2" s="100">
+      <c r="J2" s="92">
         <v>9</v>
       </c>
-      <c r="K2" s="101">
+      <c r="K2" s="93">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="94" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="36">
@@ -20158,12 +20404,12 @@
       <c r="J3" s="36">
         <v>7</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="95">
         <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="94" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="36">
@@ -20193,47 +20439,47 @@
       <c r="J4" s="36">
         <v>21</v>
       </c>
-      <c r="K4" s="103">
+      <c r="K4" s="95">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="110">
         <v>0.99</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="110">
         <v>0.98</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="110">
         <v>0.98</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="110">
         <v>0.95</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="110">
         <v>0.97</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="110">
         <v>0.99</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="110">
         <v>0.94</v>
       </c>
-      <c r="I5" s="118">
+      <c r="I5" s="110">
         <v>0.98</v>
       </c>
-      <c r="J5" s="118">
+      <c r="J5" s="110">
         <v>0.99</v>
       </c>
-      <c r="K5" s="119">
+      <c r="K5" s="111">
         <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="109" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="36">
@@ -20276,9 +20522,9 @@
         <f t="shared" si="0"/>
         <v>242.49999999999977</v>
       </c>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -20329,13 +20575,13 @@
       <c r="A8" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="110">
         <f>SUM(B7:K7)</f>
         <v>5.6687977094110879E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="100" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="36">
@@ -20434,49 +20680,49 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="100">
+      <c r="A13" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="92">
         <v>1</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="92">
         <v>2</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="92">
         <v>3</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="92">
         <v>4</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="92">
         <v>5</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="92">
         <v>6</v>
       </c>
-      <c r="H13" s="100">
+      <c r="H13" s="92">
         <v>7</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="92">
         <v>8</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="92">
         <v>9</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="93">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="94" t="s">
         <v>148</v>
       </c>
       <c r="B14" s="36">
@@ -20515,13 +20761,13 @@
         <f>0.52*POWER(10, -2)</f>
         <v>5.2000000000000006E-3</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="95">
         <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="94" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="36">
@@ -20560,7 +20806,7 @@
         <f t="shared" si="5"/>
         <v>5.2000000000000006E-4</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="95">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20573,65 +20819,62 @@
         <f>B14/100</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="97">
         <f t="shared" ref="C16:K16" si="6">C14/100</f>
         <v>5.5000000000000009E-5</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="97">
         <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="97">
         <f t="shared" si="6"/>
         <v>5.7999999999999994E-5</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="97">
         <f t="shared" si="6"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="97">
         <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="H16" s="105">
+      <c r="H16" s="97">
         <f t="shared" si="6"/>
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I16" s="105">
+      <c r="I16" s="97">
         <f t="shared" si="6"/>
         <v>5.2000000000000004E-5</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="97">
         <f t="shared" si="6"/>
         <v>5.2000000000000004E-5</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="98">
         <f t="shared" si="6"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="110">
+      <c r="B17" s="102">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="100">
         <v>5.21E-2</v>
       </c>
-      <c r="D18" s="108" t="e">
-        <f>1/D17</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D18" s="128"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="94" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="36">
@@ -20641,7 +20884,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="103" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="45"/>
@@ -20656,13 +20899,13 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="112"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="36">
@@ -20676,11 +20919,11 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="114"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
-      <c r="K24" s="112"/>
+      <c r="A24" s="105"/>
+      <c r="K24" s="104"/>
       <c r="M24" t="s">
         <v>156</v>
       </c>
@@ -20690,12 +20933,12 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="105" t="s">
         <v>152</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="K25" s="112"/>
+      <c r="K25" s="104"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -20708,7 +20951,7 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="94" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="36">
@@ -20747,7 +20990,7 @@
         <f t="shared" si="7"/>
         <v>0.90924956369982546</v>
       </c>
-      <c r="K26" s="103">
+      <c r="K26" s="95">
         <f t="shared" si="7"/>
         <v>0.91243432574430827</v>
       </c>
@@ -20763,10 +21006,10 @@
       <c r="AC26" s="37"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="105">
+      <c r="B27" s="97">
         <f>PRODUCT(B26:K26)</f>
         <v>0.38564332028176046</v>
       </c>
@@ -20794,7 +21037,7 @@
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="103" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="45"/>
@@ -20810,34 +21053,34 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="94" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="36">
         <f>SUM(B15:K15)</f>
         <v>5.2100000000000011E-3</v>
       </c>
-      <c r="K30" s="112"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="K31" s="112"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="36">
         <f>B18/(B30+B18)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K32" s="112"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="K33" s="112"/>
+      <c r="A33" s="105"/>
+      <c r="K33" s="104"/>
       <c r="M33" t="s">
         <v>156</v>
       </c>
@@ -20847,15 +21090,15 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="105" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="K34" s="112"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="94" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="36">
@@ -20894,16 +21137,16 @@
         <f t="shared" si="8"/>
         <v>0.99011782592170283</v>
       </c>
-      <c r="K35" s="103">
+      <c r="K35" s="95">
         <f t="shared" si="8"/>
         <v>0.99049429657794674</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="105">
+      <c r="B36" s="97">
         <f>PRODUCT(B35:K35)</f>
         <v>0.9052897475116316</v>
       </c>
@@ -20919,7 +21162,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="103" t="s">
         <v>155</v>
       </c>
       <c r="B38" s="45"/>
@@ -20934,34 +21177,34 @@
       <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="94" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="36">
         <f>SUM(B16:K16)</f>
         <v>5.2100000000000009E-4</v>
       </c>
-      <c r="K39" s="112"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="K40" s="112"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="36">
         <f>B18/(B39+B18)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="K41" s="112"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="113"/>
-      <c r="K42" s="112"/>
+      <c r="A42" s="105"/>
+      <c r="K42" s="104"/>
       <c r="M42" t="s">
         <v>156</v>
       </c>
@@ -20971,15 +21214,15 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="105" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="K43" s="112"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="94" t="s">
         <v>145</v>
       </c>
       <c r="B44" s="36">
@@ -21018,16 +21261,16 @@
         <f t="shared" si="9"/>
         <v>0.99900291455744739</v>
       </c>
-      <c r="K44" s="103">
+      <c r="K44" s="95">
         <f t="shared" si="9"/>
         <v>0.99904122722914668</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="105">
+      <c r="B45" s="97">
         <f>PRODUCT(B44:K44)</f>
         <v>0.99005481181682375</v>
       </c>
@@ -21043,49 +21286,49 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="129"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="132"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="123" t="s">
+      <c r="A52" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="116" t="s">
+      <c r="C53" s="108" t="s">
         <v>164</v>
       </c>
     </row>
@@ -21093,7 +21336,7 @@
       <c r="A54" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="115">
+      <c r="B54" s="107">
         <v>2</v>
       </c>
       <c r="C54" s="36">
@@ -21158,23 +21401,23 @@
       <c r="A64" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="107">
+      <c r="B64" s="99">
         <f>1/(1+B63*($B$56/$B$57))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C64" s="107">
+      <c r="C64" s="99">
         <f t="shared" ref="C64:F64" si="10">1/(1+C63*($B$56/$B$57))</f>
         <v>0.2</v>
       </c>
-      <c r="D64" s="107">
+      <c r="D64" s="99">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E64" s="107">
+      <c r="E64" s="99">
         <f t="shared" si="10"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F64" s="107">
+      <c r="F64" s="99">
         <f t="shared" si="10"/>
         <v>9.0909090909090912E-2</v>
       </c>
